--- a/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -792,9 +792,6 @@
     <t>1% Less</t>
   </si>
   <si>
-    <t>Date :31-01-2021</t>
-  </si>
-  <si>
     <t>31.01.2021</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>Date:31.01.2021</t>
+  </si>
+  <si>
+    <t>Date :01-02-2021</t>
   </si>
 </sst>
 </file>
@@ -2473,28 +2473,28 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3029,13 +3029,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y320"/>
+  <dimension ref="A1:Y317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="11" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="11" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3048,48 +3048,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
     </row>
     <row r="3" spans="1:25" s="106" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="248" t="s">
@@ -3120,34 +3120,34 @@
       <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="1:25" s="109" customFormat="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="236" t="s">
+      <c r="H4" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="242" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="251" t="s">
@@ -3181,16 +3181,16 @@
       <c r="X4" s="108"/>
     </row>
     <row r="5" spans="1:25" s="109" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
       <c r="K5" s="252"/>
       <c r="L5" s="254"/>
       <c r="M5" s="256"/>
@@ -3303,7 +3303,7 @@
       <c r="P8" s="123"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="120">
-        <f t="shared" ref="R8:R36" si="0">SUM(B8:Q8)</f>
+        <f t="shared" ref="R8:R33" si="0">SUM(B8:Q8)</f>
         <v>2896</v>
       </c>
       <c r="S8" s="121"/>
@@ -3724,13 +3724,17 @@
       <c r="X20" s="108"/>
     </row>
     <row r="21" spans="1:24" s="115" customFormat="1">
-      <c r="A21" s="116"/>
+      <c r="A21" s="116" t="s">
+        <v>166</v>
+      </c>
       <c r="B21" s="122"/>
       <c r="C21" s="123"/>
       <c r="D21" s="123"/>
       <c r="E21" s="123"/>
       <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
+      <c r="G21" s="123">
+        <v>1711</v>
+      </c>
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
       <c r="J21" s="123"/>
@@ -3742,20 +3746,29 @@
       <c r="P21" s="123"/>
       <c r="Q21" s="125"/>
       <c r="R21" s="120">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B21:Q21)</f>
+        <v>1711</v>
       </c>
       <c r="S21" s="121"/>
       <c r="T21" s="76"/>
-    </row>
-    <row r="22" spans="1:24" s="115" customFormat="1">
-      <c r="A22" s="116"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+    </row>
+    <row r="22" spans="1:24" s="124" customFormat="1">
+      <c r="A22" s="116" t="s">
+        <v>167</v>
+      </c>
       <c r="B22" s="122"/>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="E22" s="123">
+        <v>300</v>
+      </c>
       <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
+      <c r="G22" s="123">
+        <v>1754</v>
+      </c>
       <c r="H22" s="123"/>
       <c r="I22" s="123"/>
       <c r="J22" s="123"/>
@@ -3768,19 +3781,23 @@
       <c r="Q22" s="125"/>
       <c r="R22" s="120">
         <f>SUM(B22:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="121"/>
+        <v>2054</v>
+      </c>
+      <c r="S22" s="128"/>
       <c r="T22" s="76"/>
     </row>
-    <row r="23" spans="1:24" s="124" customFormat="1">
-      <c r="A23" s="116"/>
+    <row r="23" spans="1:24" s="115" customFormat="1">
+      <c r="A23" s="116" t="s">
+        <v>168</v>
+      </c>
       <c r="B23" s="122"/>
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="123"/>
       <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
+      <c r="G23" s="123">
+        <v>1900</v>
+      </c>
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
       <c r="J23" s="123"/>
@@ -3793,22 +3810,24 @@
       <c r="Q23" s="125"/>
       <c r="R23" s="120">
         <f>SUM(B23:Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="128"/>
+        <v>1900</v>
+      </c>
+      <c r="S23" s="121"/>
       <c r="T23" s="76"/>
     </row>
     <row r="24" spans="1:24" s="115" customFormat="1">
-      <c r="A24" s="116" t="s">
-        <v>166</v>
+      <c r="A24" s="123" t="s">
+        <v>169</v>
       </c>
       <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
+      <c r="C24" s="123">
+        <v>380</v>
+      </c>
       <c r="D24" s="123"/>
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123">
-        <v>1711</v>
+        <v>1679</v>
       </c>
       <c r="H24" s="123"/>
       <c r="I24" s="123"/>
@@ -3821,28 +3840,23 @@
       <c r="P24" s="123"/>
       <c r="Q24" s="125"/>
       <c r="R24" s="120">
-        <f>SUM(B24:Q24)</f>
-        <v>1711</v>
+        <f t="shared" si="0"/>
+        <v>2059</v>
       </c>
       <c r="S24" s="121"/>
       <c r="T24" s="76"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-    </row>
-    <row r="25" spans="1:24" s="124" customFormat="1">
-      <c r="A25" s="116" t="s">
-        <v>167</v>
+    </row>
+    <row r="25" spans="1:24" s="115" customFormat="1">
+      <c r="A25" s="123" t="s">
+        <v>170</v>
       </c>
       <c r="B25" s="122"/>
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
-      <c r="E25" s="123">
-        <v>300</v>
-      </c>
+      <c r="E25" s="123"/>
       <c r="F25" s="123"/>
       <c r="G25" s="123">
-        <v>1754</v>
+        <v>1690</v>
       </c>
       <c r="H25" s="123"/>
       <c r="I25" s="123"/>
@@ -3856,14 +3870,16 @@
       <c r="Q25" s="125"/>
       <c r="R25" s="120">
         <f>SUM(B25:Q25)</f>
-        <v>2054</v>
-      </c>
-      <c r="S25" s="128"/>
+        <v>1690</v>
+      </c>
+      <c r="S25" s="121"/>
       <c r="T25" s="76"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
     </row>
     <row r="26" spans="1:24" s="115" customFormat="1">
-      <c r="A26" s="116" t="s">
-        <v>168</v>
+      <c r="A26" s="123" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="122"/>
       <c r="C26" s="123"/>
@@ -3871,7 +3887,7 @@
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123">
-        <v>1900</v>
+        <v>1542</v>
       </c>
       <c r="H26" s="123"/>
       <c r="I26" s="123"/>
@@ -3885,24 +3901,24 @@
       <c r="Q26" s="125"/>
       <c r="R26" s="120">
         <f>SUM(B26:Q26)</f>
-        <v>1900</v>
+        <v>1542</v>
       </c>
       <c r="S26" s="121"/>
-      <c r="T26" s="76"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
     </row>
     <row r="27" spans="1:24" s="115" customFormat="1">
       <c r="A27" s="123" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B27" s="122"/>
-      <c r="C27" s="123">
-        <v>380</v>
-      </c>
+      <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="123"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123">
-        <v>1679</v>
+        <v>1866</v>
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -3916,24 +3932,28 @@
       <c r="Q27" s="125"/>
       <c r="R27" s="120">
         <f t="shared" si="0"/>
-        <v>2059</v>
+        <v>1866</v>
       </c>
       <c r="S27" s="121"/>
-      <c r="T27" s="76"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
     </row>
     <row r="28" spans="1:24" s="115" customFormat="1">
       <c r="A28" s="123" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B28" s="122"/>
       <c r="C28" s="123"/>
       <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="E28" s="123">
+        <v>100</v>
+      </c>
       <c r="F28" s="123"/>
       <c r="G28" s="123">
-        <v>1690</v>
-      </c>
-      <c r="H28" s="123"/>
+        <v>2625</v>
+      </c>
+      <c r="H28" s="132"/>
       <c r="I28" s="123"/>
       <c r="J28" s="123"/>
       <c r="K28" s="123"/>
@@ -3944,57 +3964,55 @@
       <c r="P28" s="123"/>
       <c r="Q28" s="125"/>
       <c r="R28" s="120">
-        <f>SUM(B28:Q28)</f>
-        <v>1690</v>
+        <f t="shared" si="0"/>
+        <v>2725</v>
       </c>
       <c r="S28" s="121"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-    </row>
-    <row r="29" spans="1:24" s="115" customFormat="1">
+    </row>
+    <row r="29" spans="1:24" s="124" customFormat="1">
       <c r="A29" s="123" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
+      <c r="C29" s="123">
+        <v>300</v>
+      </c>
       <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="E29" s="123">
+        <v>100</v>
+      </c>
       <c r="F29" s="123"/>
       <c r="G29" s="123">
-        <v>1542</v>
+        <v>3041</v>
       </c>
       <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
+      <c r="I29" s="123">
+        <v>890</v>
+      </c>
       <c r="J29" s="123"/>
       <c r="K29" s="123"/>
       <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
+      <c r="M29" s="123">
+        <v>7000</v>
+      </c>
       <c r="N29" s="123"/>
       <c r="O29" s="123"/>
       <c r="P29" s="123"/>
       <c r="Q29" s="125"/>
       <c r="R29" s="120">
-        <f>SUM(B29:Q29)</f>
-        <v>1542</v>
-      </c>
-      <c r="S29" s="121"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
+        <f t="shared" si="0"/>
+        <v>11331</v>
+      </c>
+      <c r="S29" s="128"/>
     </row>
     <row r="30" spans="1:24" s="115" customFormat="1">
-      <c r="A30" s="123" t="s">
-        <v>173</v>
-      </c>
+      <c r="A30" s="123"/>
       <c r="B30" s="122"/>
       <c r="C30" s="123"/>
       <c r="D30" s="123"/>
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
-      <c r="G30" s="123">
-        <v>1866</v>
-      </c>
+      <c r="G30" s="123"/>
       <c r="H30" s="123"/>
       <c r="I30" s="123"/>
       <c r="J30" s="123"/>
@@ -4007,28 +4025,19 @@
       <c r="Q30" s="125"/>
       <c r="R30" s="120">
         <f t="shared" si="0"/>
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="S30" s="121"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
     </row>
     <row r="31" spans="1:24" s="115" customFormat="1">
-      <c r="A31" s="123" t="s">
-        <v>177</v>
-      </c>
+      <c r="A31" s="123"/>
       <c r="B31" s="122"/>
       <c r="C31" s="123"/>
       <c r="D31" s="123"/>
-      <c r="E31" s="123">
-        <v>100</v>
-      </c>
+      <c r="E31" s="123"/>
       <c r="F31" s="123"/>
-      <c r="G31" s="123">
-        <v>2625</v>
-      </c>
-      <c r="H31" s="132"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
       <c r="K31" s="123"/>
@@ -4040,235 +4049,176 @@
       <c r="Q31" s="125"/>
       <c r="R31" s="120">
         <f t="shared" si="0"/>
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="S31" s="121"/>
     </row>
-    <row r="32" spans="1:24" s="124" customFormat="1">
-      <c r="A32" s="123" t="s">
-        <v>180</v>
-      </c>
+    <row r="32" spans="1:24" s="115" customFormat="1">
+      <c r="A32" s="123"/>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
       <c r="D32" s="123"/>
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>
-      <c r="G32" s="123">
-        <v>3441</v>
-      </c>
+      <c r="G32" s="123"/>
       <c r="H32" s="123"/>
-      <c r="I32" s="123">
-        <v>890</v>
-      </c>
+      <c r="I32" s="123"/>
       <c r="J32" s="123"/>
       <c r="K32" s="123"/>
       <c r="L32" s="123"/>
-      <c r="M32" s="123">
-        <v>7000</v>
-      </c>
+      <c r="M32" s="123"/>
       <c r="N32" s="123"/>
       <c r="O32" s="123"/>
       <c r="P32" s="123"/>
       <c r="Q32" s="125"/>
       <c r="R32" s="120">
-        <f t="shared" si="0"/>
-        <v>11331</v>
-      </c>
-      <c r="S32" s="128"/>
-    </row>
-    <row r="33" spans="1:19" s="115" customFormat="1">
+        <f>SUM(B32:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="121"/>
+    </row>
+    <row r="33" spans="1:19" s="115" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="123"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="120">
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S33" s="121"/>
     </row>
-    <row r="34" spans="1:19" s="115" customFormat="1">
-      <c r="A34" s="123"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="120">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:19" s="142" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="138">
+        <f>SUM(B6:B33)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="121"/>
-    </row>
-    <row r="35" spans="1:19" s="115" customFormat="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="120">
-        <f>SUM(B35:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="121"/>
-    </row>
-    <row r="36" spans="1:19" s="115" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="123"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="136">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="121"/>
-    </row>
-    <row r="37" spans="1:19" s="142" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A37" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="138">
-        <f>SUM(B6:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="139">
-        <f t="shared" ref="C37:Q37" si="1">SUM(C6:C36)</f>
-        <v>780</v>
-      </c>
-      <c r="D37" s="139">
+      <c r="C34" s="139">
+        <f t="shared" ref="C34:Q34" si="1">SUM(C6:C33)</f>
+        <v>1080</v>
+      </c>
+      <c r="D34" s="139">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="E37" s="139">
+      <c r="E34" s="139">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="F37" s="139">
+        <v>900</v>
+      </c>
+      <c r="F34" s="139">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G37" s="139">
+      <c r="G34" s="139">
         <f t="shared" si="1"/>
-        <v>55733</v>
-      </c>
-      <c r="H37" s="139">
+        <v>55333</v>
+      </c>
+      <c r="H34" s="139">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I37" s="139">
+      <c r="I34" s="139">
         <f t="shared" si="1"/>
         <v>890</v>
       </c>
-      <c r="J37" s="139">
+      <c r="J34" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="139">
+      <c r="K34" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="139">
+      <c r="L34" s="139">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M37" s="139">
+      <c r="M34" s="139">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="N37" s="139">
+      <c r="N34" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="139">
+      <c r="O34" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P37" s="139">
-        <f>SUM(P6:P36)</f>
+      <c r="P34" s="139">
+        <f>SUM(P6:P33)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="140">
+      <c r="Q34" s="140">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R37" s="141">
-        <f>SUM(R6:R36)</f>
+      <c r="R34" s="141">
+        <f>SUM(R6:R33)</f>
         <v>66538</v>
       </c>
     </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="146"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+    </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="143"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="146"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="147"/>
@@ -6216,33 +6166,8 @@
       <c r="D317" s="147"/>
       <c r="E317" s="147"/>
     </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="147"/>
-      <c r="B318" s="147"/>
-      <c r="C318" s="147"/>
-      <c r="D318" s="147"/>
-      <c r="E318" s="147"/>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="147"/>
-      <c r="B319" s="147"/>
-      <c r="C319" s="147"/>
-      <c r="D319" s="147"/>
-      <c r="E319" s="147"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="147"/>
-      <c r="B320" s="147"/>
-      <c r="C320" s="147"/>
-      <c r="D320" s="147"/>
-      <c r="E320" s="147"/>
-    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6259,6 +6184,10 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7258,7 +7187,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="81">
         <v>540000</v>
@@ -8433,7 +8362,7 @@
         <v>16805</v>
       </c>
       <c r="C6" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
@@ -8444,7 +8373,7 @@
         <v>24413</v>
       </c>
       <c r="C7" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
@@ -8466,7 +8395,7 @@
         <v>38345</v>
       </c>
       <c r="C9" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
@@ -8477,7 +8406,7 @@
         <v>18730</v>
       </c>
       <c r="C10" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
@@ -8531,7 +8460,7 @@
         <v>603</v>
       </c>
       <c r="C15" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
@@ -8573,7 +8502,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
@@ -8596,7 +8525,7 @@
         <v>950</v>
       </c>
       <c r="C21" s="228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>6000</v>
@@ -8681,7 +8610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8716,7 +8645,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75">
       <c r="A2" s="276" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="277"/>
       <c r="C2" s="277"/>
@@ -8993,10 +8922,10 @@
       </c>
       <c r="F15" s="23"/>
       <c r="J15" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="163" t="s">
         <v>180</v>
-      </c>
-      <c r="K15" s="163" t="s">
-        <v>181</v>
       </c>
       <c r="L15" s="163">
         <v>2904</v>
@@ -9137,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9245,7 +9174,7 @@
     </row>
     <row r="5" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="288" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B5" s="289"/>
       <c r="C5" s="288" t="s">

--- a/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="Sheet2" sheetId="48" r:id="rId6"/>
     <sheet name="Extra Stock" sheetId="49" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Alocation!$A$1:$Q$28</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -801,7 +804,7 @@
     <t>Date:31.01.2021</t>
   </si>
   <si>
-    <t>Date :01-02-2021</t>
+    <t>Date :20-02-2021</t>
   </si>
 </sst>
 </file>
@@ -2473,6 +2476,12 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2489,12 +2498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3031,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="11" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
@@ -3048,48 +3051,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
     </row>
     <row r="3" spans="1:25" s="106" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="248" t="s">
@@ -3120,34 +3123,34 @@
       <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="1:25" s="109" customFormat="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="242" t="s">
+      <c r="F4" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="242" t="s">
+      <c r="H4" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="242" t="s">
+      <c r="I4" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="242" t="s">
+      <c r="J4" s="236" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="251" t="s">
@@ -3181,16 +3184,16 @@
       <c r="X4" s="108"/>
     </row>
     <row r="5" spans="1:25" s="109" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="239"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
       <c r="K5" s="252"/>
       <c r="L5" s="254"/>
       <c r="M5" s="256"/>
@@ -6168,6 +6171,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6184,10 +6191,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9066,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/31.01.2021/Bank Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Alocation!$A$1:$Q$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -810,12 +810,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,6 +2476,30 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,30 +2549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,6 +2679,11 @@
       <color rgb="FFD8D8D8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2822,6 +2827,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2856,6 +2862,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3031,17 +3038,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="11" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="9.140625" style="104"/>
     <col min="12" max="12" width="11" style="104" bestFit="1" customWidth="1"/>
@@ -3050,71 +3057,71 @@
     <col min="19" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="238" t="s">
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-    </row>
-    <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="239" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-    </row>
-    <row r="3" spans="1:25" s="106" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="248" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+    </row>
+    <row r="3" spans="1:25" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
       <c r="T3" s="107"/>
       <c r="U3" s="108"/>
       <c r="V3" s="108"/>
@@ -3122,56 +3129,56 @@
       <c r="X3" s="108"/>
       <c r="Y3" s="109"/>
     </row>
-    <row r="4" spans="1:25" s="109" customFormat="1">
-      <c r="A4" s="240" t="s">
+    <row r="4" spans="1:25" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="236" t="s">
+      <c r="H4" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="251" t="s">
+      <c r="K4" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="253" t="s">
+      <c r="L4" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="259" t="s">
+      <c r="O4" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="246" t="s">
+      <c r="Q4" s="254" t="s">
         <v>40</v>
       </c>
       <c r="R4" s="110" t="s">
@@ -3183,24 +3190,24 @@
       <c r="W4" s="108"/>
       <c r="X4" s="108"/>
     </row>
-    <row r="5" spans="1:25" s="109" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="247"/>
+    <row r="5" spans="1:25" s="109" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="239"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="255"/>
       <c r="R5" s="112" t="s">
         <v>42</v>
       </c>
@@ -3211,7 +3218,7 @@
       <c r="X5" s="114"/>
       <c r="Y5" s="115"/>
     </row>
-    <row r="6" spans="1:25" s="115" customFormat="1">
+    <row r="6" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>21</v>
       </c>
@@ -3244,7 +3251,7 @@
       <c r="W6" s="114"/>
       <c r="X6" s="108"/>
     </row>
-    <row r="7" spans="1:25" s="115" customFormat="1">
+    <row r="7" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>22</v>
       </c>
@@ -3281,7 +3288,7 @@
       <c r="W7" s="114"/>
       <c r="X7" s="114"/>
     </row>
-    <row r="8" spans="1:25" s="115" customFormat="1">
+    <row r="8" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>75</v>
       </c>
@@ -3318,7 +3325,7 @@
       <c r="W8" s="114"/>
       <c r="X8" s="108"/>
     </row>
-    <row r="9" spans="1:25" s="115" customFormat="1">
+    <row r="9" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>76</v>
       </c>
@@ -3351,7 +3358,7 @@
       <c r="W9" s="114"/>
       <c r="X9" s="114"/>
     </row>
-    <row r="10" spans="1:25" s="115" customFormat="1">
+    <row r="10" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>119</v>
       </c>
@@ -3386,7 +3393,7 @@
       <c r="W10" s="114"/>
       <c r="X10" s="108"/>
     </row>
-    <row r="11" spans="1:25" s="115" customFormat="1">
+    <row r="11" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>123</v>
       </c>
@@ -3421,7 +3428,7 @@
       <c r="W11" s="114"/>
       <c r="X11" s="114"/>
     </row>
-    <row r="12" spans="1:25" s="115" customFormat="1">
+    <row r="12" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>124</v>
       </c>
@@ -3454,7 +3461,7 @@
       <c r="W12" s="114"/>
       <c r="X12" s="108"/>
     </row>
-    <row r="13" spans="1:25" s="115" customFormat="1">
+    <row r="13" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>130</v>
       </c>
@@ -3487,7 +3494,7 @@
       <c r="W13" s="114"/>
       <c r="X13" s="114"/>
     </row>
-    <row r="14" spans="1:25" s="115" customFormat="1">
+    <row r="14" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>132</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="W14" s="114"/>
       <c r="X14" s="108"/>
     </row>
-    <row r="15" spans="1:25" s="115" customFormat="1">
+    <row r="15" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>135</v>
       </c>
@@ -3555,7 +3562,7 @@
       <c r="W15" s="114"/>
       <c r="X15" s="114"/>
     </row>
-    <row r="16" spans="1:25" s="115" customFormat="1">
+    <row r="16" spans="1:25" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>137</v>
       </c>
@@ -3590,7 +3597,7 @@
       <c r="W16" s="114"/>
       <c r="X16" s="108"/>
     </row>
-    <row r="17" spans="1:24" s="115" customFormat="1">
+    <row r="17" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>159</v>
       </c>
@@ -3623,7 +3630,7 @@
       <c r="W17" s="114"/>
       <c r="X17" s="114"/>
     </row>
-    <row r="18" spans="1:24" s="115" customFormat="1">
+    <row r="18" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>161</v>
       </c>
@@ -3656,7 +3663,7 @@
       <c r="W18" s="114"/>
       <c r="X18" s="108"/>
     </row>
-    <row r="19" spans="1:24" s="115" customFormat="1">
+    <row r="19" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>162</v>
       </c>
@@ -3691,7 +3698,7 @@
       <c r="W19" s="114"/>
       <c r="X19" s="114"/>
     </row>
-    <row r="20" spans="1:24" s="115" customFormat="1">
+    <row r="20" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>164</v>
       </c>
@@ -3726,7 +3733,7 @@
       <c r="W20" s="114"/>
       <c r="X20" s="108"/>
     </row>
-    <row r="21" spans="1:24" s="115" customFormat="1">
+    <row r="21" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
         <v>166</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="W21" s="129"/>
       <c r="X21" s="129"/>
     </row>
-    <row r="22" spans="1:24" s="124" customFormat="1">
+    <row r="22" spans="1:24" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
         <v>167</v>
       </c>
@@ -3789,7 +3796,7 @@
       <c r="S22" s="128"/>
       <c r="T22" s="76"/>
     </row>
-    <row r="23" spans="1:24" s="115" customFormat="1">
+    <row r="23" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
         <v>168</v>
       </c>
@@ -3818,7 +3825,7 @@
       <c r="S23" s="121"/>
       <c r="T23" s="76"/>
     </row>
-    <row r="24" spans="1:24" s="115" customFormat="1">
+    <row r="24" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123" t="s">
         <v>169</v>
       </c>
@@ -3849,7 +3856,7 @@
       <c r="S24" s="121"/>
       <c r="T24" s="76"/>
     </row>
-    <row r="25" spans="1:24" s="115" customFormat="1">
+    <row r="25" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123" t="s">
         <v>170</v>
       </c>
@@ -3880,7 +3887,7 @@
       <c r="U25" s="130"/>
       <c r="V25" s="130"/>
     </row>
-    <row r="26" spans="1:24" s="115" customFormat="1">
+    <row r="26" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123" t="s">
         <v>171</v>
       </c>
@@ -3911,7 +3918,7 @@
       <c r="U26" s="131"/>
       <c r="V26" s="131"/>
     </row>
-    <row r="27" spans="1:24" s="115" customFormat="1">
+    <row r="27" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123" t="s">
         <v>173</v>
       </c>
@@ -3942,7 +3949,7 @@
       <c r="U27" s="130"/>
       <c r="V27" s="130"/>
     </row>
-    <row r="28" spans="1:24" s="115" customFormat="1">
+    <row r="28" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123" t="s">
         <v>177</v>
       </c>
@@ -3972,7 +3979,7 @@
       </c>
       <c r="S28" s="121"/>
     </row>
-    <row r="29" spans="1:24" s="124" customFormat="1">
+    <row r="29" spans="1:24" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123" t="s">
         <v>179</v>
       </c>
@@ -4008,7 +4015,7 @@
       </c>
       <c r="S29" s="128"/>
     </row>
-    <row r="30" spans="1:24" s="115" customFormat="1">
+    <row r="30" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="123"/>
       <c r="B30" s="122"/>
       <c r="C30" s="123"/>
@@ -4032,7 +4039,7 @@
       </c>
       <c r="S30" s="121"/>
     </row>
-    <row r="31" spans="1:24" s="115" customFormat="1">
+    <row r="31" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" s="122"/>
       <c r="C31" s="123"/>
@@ -4056,7 +4063,7 @@
       </c>
       <c r="S31" s="121"/>
     </row>
-    <row r="32" spans="1:24" s="115" customFormat="1">
+    <row r="32" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
@@ -4080,7 +4087,7 @@
       </c>
       <c r="S32" s="121"/>
     </row>
-    <row r="33" spans="1:19" s="115" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:19" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="123"/>
       <c r="B33" s="133"/>
       <c r="C33" s="134"/>
@@ -4104,7 +4111,7 @@
       </c>
       <c r="S33" s="121"/>
     </row>
-    <row r="34" spans="1:19" s="142" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:19" s="142" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="137" t="s">
         <v>44</v>
       </c>
@@ -4177,7 +4184,7 @@
         <v>66538</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="143"/>
       <c r="B35" s="144"/>
       <c r="C35" s="144"/>
@@ -4197,1972 +4204,1972 @@
       <c r="Q35" s="145"/>
       <c r="R35" s="146"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F36" s="147"/>
       <c r="G36" s="147"/>
       <c r="H36" s="147"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="147"/>
       <c r="B37" s="147"/>
       <c r="C37" s="147"/>
       <c r="D37" s="147"/>
       <c r="E37" s="147"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="147"/>
       <c r="B38" s="147"/>
       <c r="C38" s="147"/>
       <c r="D38" s="147"/>
       <c r="E38" s="147"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="147"/>
       <c r="B39" s="147"/>
       <c r="C39" s="147"/>
       <c r="D39" s="147"/>
       <c r="E39" s="147"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="B40" s="147"/>
       <c r="C40" s="147"/>
       <c r="D40" s="147"/>
       <c r="E40" s="147"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="147"/>
       <c r="B41" s="147"/>
       <c r="C41" s="147"/>
       <c r="D41" s="147"/>
       <c r="E41" s="147"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="147"/>
       <c r="B42" s="147"/>
       <c r="C42" s="147"/>
       <c r="D42" s="147"/>
       <c r="E42" s="147"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="147"/>
       <c r="B43" s="147"/>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
       <c r="E43" s="147"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="147"/>
       <c r="B44" s="147"/>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
       <c r="E44" s="147"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="147"/>
       <c r="B45" s="147"/>
       <c r="C45" s="147"/>
       <c r="D45" s="147"/>
       <c r="E45" s="147"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="147"/>
       <c r="B46" s="147"/>
       <c r="C46" s="147"/>
       <c r="D46" s="147"/>
       <c r="E46" s="147"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="147"/>
       <c r="B47" s="147"/>
       <c r="C47" s="147"/>
       <c r="D47" s="147"/>
       <c r="E47" s="147"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="B48" s="147"/>
       <c r="C48" s="147"/>
       <c r="D48" s="147"/>
       <c r="E48" s="147"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="147"/>
       <c r="B49" s="147"/>
       <c r="C49" s="147"/>
       <c r="D49" s="147"/>
       <c r="E49" s="147"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="147"/>
       <c r="B50" s="147"/>
       <c r="C50" s="147"/>
       <c r="D50" s="147"/>
       <c r="E50" s="147"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="147"/>
       <c r="B51" s="147"/>
       <c r="C51" s="147"/>
       <c r="D51" s="147"/>
       <c r="E51" s="147"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="147"/>
       <c r="B52" s="147"/>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
       <c r="E52" s="147"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="147"/>
       <c r="B53" s="147"/>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
       <c r="E53" s="147"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="147"/>
       <c r="B54" s="147"/>
       <c r="C54" s="147"/>
       <c r="D54" s="147"/>
       <c r="E54" s="147"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="147"/>
       <c r="B55" s="147"/>
       <c r="C55" s="147"/>
       <c r="D55" s="147"/>
       <c r="E55" s="147"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="147"/>
       <c r="B56" s="147"/>
       <c r="C56" s="147"/>
       <c r="D56" s="147"/>
       <c r="E56" s="147"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="147"/>
       <c r="B57" s="147"/>
       <c r="C57" s="147"/>
       <c r="D57" s="147"/>
       <c r="E57" s="147"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="147"/>
       <c r="B58" s="147"/>
       <c r="C58" s="147"/>
       <c r="D58" s="147"/>
       <c r="E58" s="147"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="147"/>
       <c r="B59" s="147"/>
       <c r="C59" s="147"/>
       <c r="D59" s="147"/>
       <c r="E59" s="147"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="147"/>
       <c r="B60" s="147"/>
       <c r="C60" s="147"/>
       <c r="D60" s="147"/>
       <c r="E60" s="147"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="147"/>
       <c r="B61" s="147"/>
       <c r="C61" s="147"/>
       <c r="D61" s="147"/>
       <c r="E61" s="147"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="147"/>
       <c r="B62" s="147"/>
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
       <c r="E62" s="147"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="147"/>
       <c r="B63" s="147"/>
       <c r="C63" s="147"/>
       <c r="D63" s="147"/>
       <c r="E63" s="147"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="147"/>
       <c r="B64" s="147"/>
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="147"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="147"/>
       <c r="B65" s="147"/>
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
       <c r="E65" s="147"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="147"/>
       <c r="B66" s="147"/>
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
       <c r="E66" s="147"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="147"/>
       <c r="B67" s="147"/>
       <c r="C67" s="147"/>
       <c r="D67" s="147"/>
       <c r="E67" s="147"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="147"/>
       <c r="B68" s="147"/>
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
       <c r="E68" s="147"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="147"/>
       <c r="B69" s="147"/>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
       <c r="E69" s="147"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="147"/>
       <c r="B70" s="147"/>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="147"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="147"/>
       <c r="B71" s="147"/>
       <c r="C71" s="147"/>
       <c r="D71" s="147"/>
       <c r="E71" s="147"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="147"/>
       <c r="B72" s="147"/>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
       <c r="E72" s="147"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="147"/>
       <c r="B73" s="147"/>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
       <c r="E73" s="147"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="147"/>
       <c r="B74" s="147"/>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
       <c r="E74" s="147"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="147"/>
       <c r="B75" s="147"/>
       <c r="C75" s="147"/>
       <c r="D75" s="147"/>
       <c r="E75" s="147"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="147"/>
       <c r="B76" s="147"/>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
       <c r="E76" s="147"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="147"/>
       <c r="B77" s="147"/>
       <c r="C77" s="147"/>
       <c r="D77" s="147"/>
       <c r="E77" s="147"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="147"/>
       <c r="B78" s="147"/>
       <c r="C78" s="147"/>
       <c r="D78" s="147"/>
       <c r="E78" s="147"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="147"/>
       <c r="B79" s="147"/>
       <c r="C79" s="147"/>
       <c r="D79" s="147"/>
       <c r="E79" s="147"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="147"/>
       <c r="B80" s="147"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147"/>
       <c r="E80" s="147"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="147"/>
       <c r="B81" s="147"/>
       <c r="C81" s="147"/>
       <c r="D81" s="147"/>
       <c r="E81" s="147"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="147"/>
       <c r="B82" s="147"/>
       <c r="C82" s="147"/>
       <c r="D82" s="147"/>
       <c r="E82" s="147"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="147"/>
       <c r="B83" s="147"/>
       <c r="C83" s="147"/>
       <c r="D83" s="147"/>
       <c r="E83" s="147"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="147"/>
       <c r="B84" s="147"/>
       <c r="C84" s="147"/>
       <c r="D84" s="147"/>
       <c r="E84" s="147"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="147"/>
       <c r="B85" s="147"/>
       <c r="C85" s="147"/>
       <c r="D85" s="147"/>
       <c r="E85" s="147"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="147"/>
       <c r="B86" s="147"/>
       <c r="C86" s="147"/>
       <c r="D86" s="147"/>
       <c r="E86" s="147"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="147"/>
       <c r="B87" s="147"/>
       <c r="C87" s="147"/>
       <c r="D87" s="147"/>
       <c r="E87" s="147"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="147"/>
       <c r="B88" s="147"/>
       <c r="C88" s="147"/>
       <c r="D88" s="147"/>
       <c r="E88" s="147"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="147"/>
       <c r="B89" s="147"/>
       <c r="C89" s="147"/>
       <c r="D89" s="147"/>
       <c r="E89" s="147"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="147"/>
       <c r="B90" s="147"/>
       <c r="C90" s="147"/>
       <c r="D90" s="147"/>
       <c r="E90" s="147"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="147"/>
       <c r="B91" s="147"/>
       <c r="C91" s="147"/>
       <c r="D91" s="147"/>
       <c r="E91" s="147"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="147"/>
       <c r="B92" s="147"/>
       <c r="C92" s="147"/>
       <c r="D92" s="147"/>
       <c r="E92" s="147"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="147"/>
       <c r="B93" s="147"/>
       <c r="C93" s="147"/>
       <c r="D93" s="147"/>
       <c r="E93" s="147"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="147"/>
       <c r="B94" s="147"/>
       <c r="C94" s="147"/>
       <c r="D94" s="147"/>
       <c r="E94" s="147"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="147"/>
       <c r="B95" s="147"/>
       <c r="C95" s="147"/>
       <c r="D95" s="147"/>
       <c r="E95" s="147"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="147"/>
       <c r="B96" s="147"/>
       <c r="C96" s="147"/>
       <c r="D96" s="147"/>
       <c r="E96" s="147"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="147"/>
       <c r="B97" s="147"/>
       <c r="C97" s="147"/>
       <c r="D97" s="147"/>
       <c r="E97" s="147"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="147"/>
       <c r="B98" s="147"/>
       <c r="C98" s="147"/>
       <c r="D98" s="147"/>
       <c r="E98" s="147"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="147"/>
       <c r="B99" s="147"/>
       <c r="C99" s="147"/>
       <c r="D99" s="147"/>
       <c r="E99" s="147"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="147"/>
       <c r="B100" s="147"/>
       <c r="C100" s="147"/>
       <c r="D100" s="147"/>
       <c r="E100" s="147"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="147"/>
       <c r="B101" s="147"/>
       <c r="C101" s="147"/>
       <c r="D101" s="147"/>
       <c r="E101" s="147"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="147"/>
       <c r="B102" s="147"/>
       <c r="C102" s="147"/>
       <c r="D102" s="147"/>
       <c r="E102" s="147"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="147"/>
       <c r="B103" s="147"/>
       <c r="C103" s="147"/>
       <c r="D103" s="147"/>
       <c r="E103" s="147"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="147"/>
       <c r="B104" s="147"/>
       <c r="C104" s="147"/>
       <c r="D104" s="147"/>
       <c r="E104" s="147"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="147"/>
       <c r="B105" s="147"/>
       <c r="C105" s="147"/>
       <c r="D105" s="147"/>
       <c r="E105" s="147"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="147"/>
       <c r="B106" s="147"/>
       <c r="C106" s="147"/>
       <c r="D106" s="147"/>
       <c r="E106" s="147"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="147"/>
       <c r="B107" s="147"/>
       <c r="C107" s="147"/>
       <c r="D107" s="147"/>
       <c r="E107" s="147"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="147"/>
       <c r="B108" s="147"/>
       <c r="C108" s="147"/>
       <c r="D108" s="147"/>
       <c r="E108" s="147"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="147"/>
       <c r="B109" s="147"/>
       <c r="C109" s="147"/>
       <c r="D109" s="147"/>
       <c r="E109" s="147"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="147"/>
       <c r="B110" s="147"/>
       <c r="C110" s="147"/>
       <c r="D110" s="147"/>
       <c r="E110" s="147"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="147"/>
       <c r="B111" s="147"/>
       <c r="C111" s="147"/>
       <c r="D111" s="147"/>
       <c r="E111" s="147"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="147"/>
       <c r="B112" s="147"/>
       <c r="C112" s="147"/>
       <c r="D112" s="147"/>
       <c r="E112" s="147"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="147"/>
       <c r="B113" s="147"/>
       <c r="C113" s="147"/>
       <c r="D113" s="147"/>
       <c r="E113" s="147"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="147"/>
       <c r="B114" s="147"/>
       <c r="C114" s="147"/>
       <c r="D114" s="147"/>
       <c r="E114" s="147"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="147"/>
       <c r="B115" s="147"/>
       <c r="C115" s="147"/>
       <c r="D115" s="147"/>
       <c r="E115" s="147"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="147"/>
       <c r="B116" s="147"/>
       <c r="C116" s="147"/>
       <c r="D116" s="147"/>
       <c r="E116" s="147"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="147"/>
       <c r="B117" s="147"/>
       <c r="C117" s="147"/>
       <c r="D117" s="147"/>
       <c r="E117" s="147"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="147"/>
       <c r="B118" s="147"/>
       <c r="C118" s="147"/>
       <c r="D118" s="147"/>
       <c r="E118" s="147"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="147"/>
       <c r="B119" s="147"/>
       <c r="C119" s="147"/>
       <c r="D119" s="147"/>
       <c r="E119" s="147"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="147"/>
       <c r="B120" s="147"/>
       <c r="C120" s="147"/>
       <c r="D120" s="147"/>
       <c r="E120" s="147"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="147"/>
       <c r="B121" s="147"/>
       <c r="C121" s="147"/>
       <c r="D121" s="147"/>
       <c r="E121" s="147"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="147"/>
       <c r="B122" s="147"/>
       <c r="C122" s="147"/>
       <c r="D122" s="147"/>
       <c r="E122" s="147"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="147"/>
       <c r="B123" s="147"/>
       <c r="C123" s="147"/>
       <c r="D123" s="147"/>
       <c r="E123" s="147"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="147"/>
       <c r="B124" s="147"/>
       <c r="C124" s="147"/>
       <c r="D124" s="147"/>
       <c r="E124" s="147"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="147"/>
       <c r="B125" s="147"/>
       <c r="C125" s="147"/>
       <c r="D125" s="147"/>
       <c r="E125" s="147"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="147"/>
       <c r="B126" s="147"/>
       <c r="C126" s="147"/>
       <c r="D126" s="147"/>
       <c r="E126" s="147"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="147"/>
       <c r="B127" s="147"/>
       <c r="C127" s="147"/>
       <c r="D127" s="147"/>
       <c r="E127" s="147"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="147"/>
       <c r="B128" s="147"/>
       <c r="C128" s="147"/>
       <c r="D128" s="147"/>
       <c r="E128" s="147"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="147"/>
       <c r="B129" s="147"/>
       <c r="C129" s="147"/>
       <c r="D129" s="147"/>
       <c r="E129" s="147"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="147"/>
       <c r="B130" s="147"/>
       <c r="C130" s="147"/>
       <c r="D130" s="147"/>
       <c r="E130" s="147"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="147"/>
       <c r="B131" s="147"/>
       <c r="C131" s="147"/>
       <c r="D131" s="147"/>
       <c r="E131" s="147"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="147"/>
       <c r="B132" s="147"/>
       <c r="C132" s="147"/>
       <c r="D132" s="147"/>
       <c r="E132" s="147"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="147"/>
       <c r="B133" s="147"/>
       <c r="C133" s="147"/>
       <c r="D133" s="147"/>
       <c r="E133" s="147"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="147"/>
       <c r="B134" s="147"/>
       <c r="C134" s="147"/>
       <c r="D134" s="147"/>
       <c r="E134" s="147"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="147"/>
       <c r="B135" s="147"/>
       <c r="C135" s="147"/>
       <c r="D135" s="147"/>
       <c r="E135" s="147"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="147"/>
       <c r="B136" s="147"/>
       <c r="C136" s="147"/>
       <c r="D136" s="147"/>
       <c r="E136" s="147"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="147"/>
       <c r="B137" s="147"/>
       <c r="C137" s="147"/>
       <c r="D137" s="147"/>
       <c r="E137" s="147"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="147"/>
       <c r="B138" s="147"/>
       <c r="C138" s="147"/>
       <c r="D138" s="147"/>
       <c r="E138" s="147"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="147"/>
       <c r="B139" s="147"/>
       <c r="C139" s="147"/>
       <c r="D139" s="147"/>
       <c r="E139" s="147"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="147"/>
       <c r="B140" s="147"/>
       <c r="C140" s="147"/>
       <c r="D140" s="147"/>
       <c r="E140" s="147"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="147"/>
       <c r="B141" s="147"/>
       <c r="C141" s="147"/>
       <c r="D141" s="147"/>
       <c r="E141" s="147"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="147"/>
       <c r="B142" s="147"/>
       <c r="C142" s="147"/>
       <c r="D142" s="147"/>
       <c r="E142" s="147"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="147"/>
       <c r="B143" s="147"/>
       <c r="C143" s="147"/>
       <c r="D143" s="147"/>
       <c r="E143" s="147"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="147"/>
       <c r="B144" s="147"/>
       <c r="C144" s="147"/>
       <c r="D144" s="147"/>
       <c r="E144" s="147"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="147"/>
       <c r="B145" s="147"/>
       <c r="C145" s="147"/>
       <c r="D145" s="147"/>
       <c r="E145" s="147"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="147"/>
       <c r="B146" s="147"/>
       <c r="C146" s="147"/>
       <c r="D146" s="147"/>
       <c r="E146" s="147"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="147"/>
       <c r="B147" s="147"/>
       <c r="C147" s="147"/>
       <c r="D147" s="147"/>
       <c r="E147" s="147"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="147"/>
       <c r="B148" s="147"/>
       <c r="C148" s="147"/>
       <c r="D148" s="147"/>
       <c r="E148" s="147"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="147"/>
       <c r="B149" s="147"/>
       <c r="C149" s="147"/>
       <c r="D149" s="147"/>
       <c r="E149" s="147"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="147"/>
       <c r="B150" s="147"/>
       <c r="C150" s="147"/>
       <c r="D150" s="147"/>
       <c r="E150" s="147"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="147"/>
       <c r="B151" s="147"/>
       <c r="C151" s="147"/>
       <c r="D151" s="147"/>
       <c r="E151" s="147"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="147"/>
       <c r="B152" s="147"/>
       <c r="C152" s="147"/>
       <c r="D152" s="147"/>
       <c r="E152" s="147"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="147"/>
       <c r="B153" s="147"/>
       <c r="C153" s="147"/>
       <c r="D153" s="147"/>
       <c r="E153" s="147"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="147"/>
       <c r="B154" s="147"/>
       <c r="C154" s="147"/>
       <c r="D154" s="147"/>
       <c r="E154" s="147"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="147"/>
       <c r="B155" s="147"/>
       <c r="C155" s="147"/>
       <c r="D155" s="147"/>
       <c r="E155" s="147"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="147"/>
       <c r="B156" s="147"/>
       <c r="C156" s="147"/>
       <c r="D156" s="147"/>
       <c r="E156" s="147"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="147"/>
       <c r="B157" s="147"/>
       <c r="C157" s="147"/>
       <c r="D157" s="147"/>
       <c r="E157" s="147"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="147"/>
       <c r="B158" s="147"/>
       <c r="C158" s="147"/>
       <c r="D158" s="147"/>
       <c r="E158" s="147"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="147"/>
       <c r="B159" s="147"/>
       <c r="C159" s="147"/>
       <c r="D159" s="147"/>
       <c r="E159" s="147"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="147"/>
       <c r="B160" s="147"/>
       <c r="C160" s="147"/>
       <c r="D160" s="147"/>
       <c r="E160" s="147"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="147"/>
       <c r="B161" s="147"/>
       <c r="C161" s="147"/>
       <c r="D161" s="147"/>
       <c r="E161" s="147"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="147"/>
       <c r="B162" s="147"/>
       <c r="C162" s="147"/>
       <c r="D162" s="147"/>
       <c r="E162" s="147"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="147"/>
       <c r="B163" s="147"/>
       <c r="C163" s="147"/>
       <c r="D163" s="147"/>
       <c r="E163" s="147"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="147"/>
       <c r="B164" s="147"/>
       <c r="C164" s="147"/>
       <c r="D164" s="147"/>
       <c r="E164" s="147"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="147"/>
       <c r="B165" s="147"/>
       <c r="C165" s="147"/>
       <c r="D165" s="147"/>
       <c r="E165" s="147"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="147"/>
       <c r="B166" s="147"/>
       <c r="C166" s="147"/>
       <c r="D166" s="147"/>
       <c r="E166" s="147"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="147"/>
       <c r="B167" s="147"/>
       <c r="C167" s="147"/>
       <c r="D167" s="147"/>
       <c r="E167" s="147"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="147"/>
       <c r="B168" s="147"/>
       <c r="C168" s="147"/>
       <c r="D168" s="147"/>
       <c r="E168" s="147"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="147"/>
       <c r="B169" s="147"/>
       <c r="C169" s="147"/>
       <c r="D169" s="147"/>
       <c r="E169" s="147"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="147"/>
       <c r="B170" s="147"/>
       <c r="C170" s="147"/>
       <c r="D170" s="147"/>
       <c r="E170" s="147"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="147"/>
       <c r="B171" s="147"/>
       <c r="C171" s="147"/>
       <c r="D171" s="147"/>
       <c r="E171" s="147"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="147"/>
       <c r="B172" s="147"/>
       <c r="C172" s="147"/>
       <c r="D172" s="147"/>
       <c r="E172" s="147"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="147"/>
       <c r="B173" s="147"/>
       <c r="C173" s="147"/>
       <c r="D173" s="147"/>
       <c r="E173" s="147"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="147"/>
       <c r="B174" s="147"/>
       <c r="C174" s="147"/>
       <c r="D174" s="147"/>
       <c r="E174" s="147"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="147"/>
       <c r="B175" s="147"/>
       <c r="C175" s="147"/>
       <c r="D175" s="147"/>
       <c r="E175" s="147"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="147"/>
       <c r="B176" s="147"/>
       <c r="C176" s="147"/>
       <c r="D176" s="147"/>
       <c r="E176" s="147"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="147"/>
       <c r="B177" s="147"/>
       <c r="C177" s="147"/>
       <c r="D177" s="147"/>
       <c r="E177" s="147"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="147"/>
       <c r="B178" s="147"/>
       <c r="C178" s="147"/>
       <c r="D178" s="147"/>
       <c r="E178" s="147"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="147"/>
       <c r="B179" s="147"/>
       <c r="C179" s="147"/>
       <c r="D179" s="147"/>
       <c r="E179" s="147"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="147"/>
       <c r="B180" s="147"/>
       <c r="C180" s="147"/>
       <c r="D180" s="147"/>
       <c r="E180" s="147"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="147"/>
       <c r="B181" s="147"/>
       <c r="C181" s="147"/>
       <c r="D181" s="147"/>
       <c r="E181" s="147"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="147"/>
       <c r="B182" s="147"/>
       <c r="C182" s="147"/>
       <c r="D182" s="147"/>
       <c r="E182" s="147"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="147"/>
       <c r="B183" s="147"/>
       <c r="C183" s="147"/>
       <c r="D183" s="147"/>
       <c r="E183" s="147"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="147"/>
       <c r="B184" s="147"/>
       <c r="C184" s="147"/>
       <c r="D184" s="147"/>
       <c r="E184" s="147"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="147"/>
       <c r="B185" s="147"/>
       <c r="C185" s="147"/>
       <c r="D185" s="147"/>
       <c r="E185" s="147"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="147"/>
       <c r="B186" s="147"/>
       <c r="C186" s="147"/>
       <c r="D186" s="147"/>
       <c r="E186" s="147"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="147"/>
       <c r="B187" s="147"/>
       <c r="C187" s="147"/>
       <c r="D187" s="147"/>
       <c r="E187" s="147"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="147"/>
       <c r="B188" s="147"/>
       <c r="C188" s="147"/>
       <c r="D188" s="147"/>
       <c r="E188" s="147"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="147"/>
       <c r="B189" s="147"/>
       <c r="C189" s="147"/>
       <c r="D189" s="147"/>
       <c r="E189" s="147"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="147"/>
       <c r="B190" s="147"/>
       <c r="C190" s="147"/>
       <c r="D190" s="147"/>
       <c r="E190" s="147"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="147"/>
       <c r="B191" s="147"/>
       <c r="C191" s="147"/>
       <c r="D191" s="147"/>
       <c r="E191" s="147"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="147"/>
       <c r="B192" s="147"/>
       <c r="C192" s="147"/>
       <c r="D192" s="147"/>
       <c r="E192" s="147"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="147"/>
       <c r="B193" s="147"/>
       <c r="C193" s="147"/>
       <c r="D193" s="147"/>
       <c r="E193" s="147"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="147"/>
       <c r="B194" s="147"/>
       <c r="C194" s="147"/>
       <c r="D194" s="147"/>
       <c r="E194" s="147"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="147"/>
       <c r="B195" s="147"/>
       <c r="C195" s="147"/>
       <c r="D195" s="147"/>
       <c r="E195" s="147"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="147"/>
       <c r="B196" s="147"/>
       <c r="C196" s="147"/>
       <c r="D196" s="147"/>
       <c r="E196" s="147"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="147"/>
       <c r="B197" s="147"/>
       <c r="C197" s="147"/>
       <c r="D197" s="147"/>
       <c r="E197" s="147"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="147"/>
       <c r="B198" s="147"/>
       <c r="C198" s="147"/>
       <c r="D198" s="147"/>
       <c r="E198" s="147"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="147"/>
       <c r="B199" s="147"/>
       <c r="C199" s="147"/>
       <c r="D199" s="147"/>
       <c r="E199" s="147"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="147"/>
       <c r="B200" s="147"/>
       <c r="C200" s="147"/>
       <c r="D200" s="147"/>
       <c r="E200" s="147"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="147"/>
       <c r="B201" s="147"/>
       <c r="C201" s="147"/>
       <c r="D201" s="147"/>
       <c r="E201" s="147"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="147"/>
       <c r="B202" s="147"/>
       <c r="C202" s="147"/>
       <c r="D202" s="147"/>
       <c r="E202" s="147"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="147"/>
       <c r="B203" s="147"/>
       <c r="C203" s="147"/>
       <c r="D203" s="147"/>
       <c r="E203" s="147"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="147"/>
       <c r="B204" s="147"/>
       <c r="C204" s="147"/>
       <c r="D204" s="147"/>
       <c r="E204" s="147"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="147"/>
       <c r="B205" s="147"/>
       <c r="C205" s="147"/>
       <c r="D205" s="147"/>
       <c r="E205" s="147"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="147"/>
       <c r="B206" s="147"/>
       <c r="C206" s="147"/>
       <c r="D206" s="147"/>
       <c r="E206" s="147"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="147"/>
       <c r="B207" s="147"/>
       <c r="C207" s="147"/>
       <c r="D207" s="147"/>
       <c r="E207" s="147"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="147"/>
       <c r="B208" s="147"/>
       <c r="C208" s="147"/>
       <c r="D208" s="147"/>
       <c r="E208" s="147"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="147"/>
       <c r="B209" s="147"/>
       <c r="C209" s="147"/>
       <c r="D209" s="147"/>
       <c r="E209" s="147"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="147"/>
       <c r="B210" s="147"/>
       <c r="C210" s="147"/>
       <c r="D210" s="147"/>
       <c r="E210" s="147"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="147"/>
       <c r="B211" s="147"/>
       <c r="C211" s="147"/>
       <c r="D211" s="147"/>
       <c r="E211" s="147"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="147"/>
       <c r="B212" s="147"/>
       <c r="C212" s="147"/>
       <c r="D212" s="147"/>
       <c r="E212" s="147"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="147"/>
       <c r="B213" s="147"/>
       <c r="C213" s="147"/>
       <c r="D213" s="147"/>
       <c r="E213" s="147"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="147"/>
       <c r="B214" s="147"/>
       <c r="C214" s="147"/>
       <c r="D214" s="147"/>
       <c r="E214" s="147"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="147"/>
       <c r="B215" s="147"/>
       <c r="C215" s="147"/>
       <c r="D215" s="147"/>
       <c r="E215" s="147"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="147"/>
       <c r="B216" s="147"/>
       <c r="C216" s="147"/>
       <c r="D216" s="147"/>
       <c r="E216" s="147"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="147"/>
       <c r="B217" s="147"/>
       <c r="C217" s="147"/>
       <c r="D217" s="147"/>
       <c r="E217" s="147"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="147"/>
       <c r="B218" s="147"/>
       <c r="C218" s="147"/>
       <c r="D218" s="147"/>
       <c r="E218" s="147"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="147"/>
       <c r="B219" s="147"/>
       <c r="C219" s="147"/>
       <c r="D219" s="147"/>
       <c r="E219" s="147"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="147"/>
       <c r="B220" s="147"/>
       <c r="C220" s="147"/>
       <c r="D220" s="147"/>
       <c r="E220" s="147"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="147"/>
       <c r="B221" s="147"/>
       <c r="C221" s="147"/>
       <c r="D221" s="147"/>
       <c r="E221" s="147"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="147"/>
       <c r="B222" s="147"/>
       <c r="C222" s="147"/>
       <c r="D222" s="147"/>
       <c r="E222" s="147"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="147"/>
       <c r="B223" s="147"/>
       <c r="C223" s="147"/>
       <c r="D223" s="147"/>
       <c r="E223" s="147"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="147"/>
       <c r="B224" s="147"/>
       <c r="C224" s="147"/>
       <c r="D224" s="147"/>
       <c r="E224" s="147"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="147"/>
       <c r="B225" s="147"/>
       <c r="C225" s="147"/>
       <c r="D225" s="147"/>
       <c r="E225" s="147"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="147"/>
       <c r="B226" s="147"/>
       <c r="C226" s="147"/>
       <c r="D226" s="147"/>
       <c r="E226" s="147"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="147"/>
       <c r="B227" s="147"/>
       <c r="C227" s="147"/>
       <c r="D227" s="147"/>
       <c r="E227" s="147"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="147"/>
       <c r="B228" s="147"/>
       <c r="C228" s="147"/>
       <c r="D228" s="147"/>
       <c r="E228" s="147"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="147"/>
       <c r="B229" s="147"/>
       <c r="C229" s="147"/>
       <c r="D229" s="147"/>
       <c r="E229" s="147"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="147"/>
       <c r="B230" s="147"/>
       <c r="C230" s="147"/>
       <c r="D230" s="147"/>
       <c r="E230" s="147"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="147"/>
       <c r="B231" s="147"/>
       <c r="C231" s="147"/>
       <c r="D231" s="147"/>
       <c r="E231" s="147"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="147"/>
       <c r="B232" s="147"/>
       <c r="C232" s="147"/>
       <c r="D232" s="147"/>
       <c r="E232" s="147"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="147"/>
       <c r="B233" s="147"/>
       <c r="C233" s="147"/>
       <c r="D233" s="147"/>
       <c r="E233" s="147"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="147"/>
       <c r="B234" s="147"/>
       <c r="C234" s="147"/>
       <c r="D234" s="147"/>
       <c r="E234" s="147"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="147"/>
       <c r="B235" s="147"/>
       <c r="C235" s="147"/>
       <c r="D235" s="147"/>
       <c r="E235" s="147"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="147"/>
       <c r="B236" s="147"/>
       <c r="C236" s="147"/>
       <c r="D236" s="147"/>
       <c r="E236" s="147"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="147"/>
       <c r="B237" s="147"/>
       <c r="C237" s="147"/>
       <c r="D237" s="147"/>
       <c r="E237" s="147"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="147"/>
       <c r="B238" s="147"/>
       <c r="C238" s="147"/>
       <c r="D238" s="147"/>
       <c r="E238" s="147"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="147"/>
       <c r="B239" s="147"/>
       <c r="C239" s="147"/>
       <c r="D239" s="147"/>
       <c r="E239" s="147"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="147"/>
       <c r="B240" s="147"/>
       <c r="C240" s="147"/>
       <c r="D240" s="147"/>
       <c r="E240" s="147"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="147"/>
       <c r="B241" s="147"/>
       <c r="C241" s="147"/>
       <c r="D241" s="147"/>
       <c r="E241" s="147"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="147"/>
       <c r="B242" s="147"/>
       <c r="C242" s="147"/>
       <c r="D242" s="147"/>
       <c r="E242" s="147"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="147"/>
       <c r="B243" s="147"/>
       <c r="C243" s="147"/>
       <c r="D243" s="147"/>
       <c r="E243" s="147"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="147"/>
       <c r="B244" s="147"/>
       <c r="C244" s="147"/>
       <c r="D244" s="147"/>
       <c r="E244" s="147"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="147"/>
       <c r="B245" s="147"/>
       <c r="C245" s="147"/>
       <c r="D245" s="147"/>
       <c r="E245" s="147"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="147"/>
       <c r="B246" s="147"/>
       <c r="C246" s="147"/>
       <c r="D246" s="147"/>
       <c r="E246" s="147"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="147"/>
       <c r="B247" s="147"/>
       <c r="C247" s="147"/>
       <c r="D247" s="147"/>
       <c r="E247" s="147"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="147"/>
       <c r="B248" s="147"/>
       <c r="C248" s="147"/>
       <c r="D248" s="147"/>
       <c r="E248" s="147"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="147"/>
       <c r="B249" s="147"/>
       <c r="C249" s="147"/>
       <c r="D249" s="147"/>
       <c r="E249" s="147"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="147"/>
       <c r="B250" s="147"/>
       <c r="C250" s="147"/>
       <c r="D250" s="147"/>
       <c r="E250" s="147"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="147"/>
       <c r="B251" s="147"/>
       <c r="C251" s="147"/>
       <c r="D251" s="147"/>
       <c r="E251" s="147"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="147"/>
       <c r="B252" s="147"/>
       <c r="C252" s="147"/>
       <c r="D252" s="147"/>
       <c r="E252" s="147"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="147"/>
       <c r="B253" s="147"/>
       <c r="C253" s="147"/>
       <c r="D253" s="147"/>
       <c r="E253" s="147"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="147"/>
       <c r="B254" s="147"/>
       <c r="C254" s="147"/>
       <c r="D254" s="147"/>
       <c r="E254" s="147"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="147"/>
       <c r="B255" s="147"/>
       <c r="C255" s="147"/>
       <c r="D255" s="147"/>
       <c r="E255" s="147"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="147"/>
       <c r="B256" s="147"/>
       <c r="C256" s="147"/>
       <c r="D256" s="147"/>
       <c r="E256" s="147"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="147"/>
       <c r="B257" s="147"/>
       <c r="C257" s="147"/>
       <c r="D257" s="147"/>
       <c r="E257" s="147"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="147"/>
       <c r="B258" s="147"/>
       <c r="C258" s="147"/>
       <c r="D258" s="147"/>
       <c r="E258" s="147"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="147"/>
       <c r="B259" s="147"/>
       <c r="C259" s="147"/>
       <c r="D259" s="147"/>
       <c r="E259" s="147"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="147"/>
       <c r="B260" s="147"/>
       <c r="C260" s="147"/>
       <c r="D260" s="147"/>
       <c r="E260" s="147"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="147"/>
       <c r="B261" s="147"/>
       <c r="C261" s="147"/>
       <c r="D261" s="147"/>
       <c r="E261" s="147"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="147"/>
       <c r="B262" s="147"/>
       <c r="C262" s="147"/>
       <c r="D262" s="147"/>
       <c r="E262" s="147"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="147"/>
       <c r="B263" s="147"/>
       <c r="C263" s="147"/>
       <c r="D263" s="147"/>
       <c r="E263" s="147"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="147"/>
       <c r="B264" s="147"/>
       <c r="C264" s="147"/>
       <c r="D264" s="147"/>
       <c r="E264" s="147"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="147"/>
       <c r="B265" s="147"/>
       <c r="C265" s="147"/>
       <c r="D265" s="147"/>
       <c r="E265" s="147"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="147"/>
       <c r="B266" s="147"/>
       <c r="C266" s="147"/>
       <c r="D266" s="147"/>
       <c r="E266" s="147"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="147"/>
       <c r="B267" s="147"/>
       <c r="C267" s="147"/>
       <c r="D267" s="147"/>
       <c r="E267" s="147"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="147"/>
       <c r="B268" s="147"/>
       <c r="C268" s="147"/>
       <c r="D268" s="147"/>
       <c r="E268" s="147"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="147"/>
       <c r="B269" s="147"/>
       <c r="C269" s="147"/>
       <c r="D269" s="147"/>
       <c r="E269" s="147"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="147"/>
       <c r="B270" s="147"/>
       <c r="C270" s="147"/>
       <c r="D270" s="147"/>
       <c r="E270" s="147"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="147"/>
       <c r="B271" s="147"/>
       <c r="C271" s="147"/>
       <c r="D271" s="147"/>
       <c r="E271" s="147"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="147"/>
       <c r="B272" s="147"/>
       <c r="C272" s="147"/>
       <c r="D272" s="147"/>
       <c r="E272" s="147"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="147"/>
       <c r="B273" s="147"/>
       <c r="C273" s="147"/>
       <c r="D273" s="147"/>
       <c r="E273" s="147"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="147"/>
       <c r="B274" s="147"/>
       <c r="C274" s="147"/>
       <c r="D274" s="147"/>
       <c r="E274" s="147"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="147"/>
       <c r="B275" s="147"/>
       <c r="C275" s="147"/>
       <c r="D275" s="147"/>
       <c r="E275" s="147"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="147"/>
       <c r="B276" s="147"/>
       <c r="C276" s="147"/>
       <c r="D276" s="147"/>
       <c r="E276" s="147"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="147"/>
       <c r="B277" s="147"/>
       <c r="C277" s="147"/>
       <c r="D277" s="147"/>
       <c r="E277" s="147"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="147"/>
       <c r="B278" s="147"/>
       <c r="C278" s="147"/>
       <c r="D278" s="147"/>
       <c r="E278" s="147"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="147"/>
       <c r="B279" s="147"/>
       <c r="C279" s="147"/>
       <c r="D279" s="147"/>
       <c r="E279" s="147"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="147"/>
       <c r="B280" s="147"/>
       <c r="C280" s="147"/>
       <c r="D280" s="147"/>
       <c r="E280" s="147"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="147"/>
       <c r="B281" s="147"/>
       <c r="C281" s="147"/>
       <c r="D281" s="147"/>
       <c r="E281" s="147"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="147"/>
       <c r="B282" s="147"/>
       <c r="C282" s="147"/>
       <c r="D282" s="147"/>
       <c r="E282" s="147"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="147"/>
       <c r="B283" s="147"/>
       <c r="C283" s="147"/>
       <c r="D283" s="147"/>
       <c r="E283" s="147"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="147"/>
       <c r="B284" s="147"/>
       <c r="C284" s="147"/>
       <c r="D284" s="147"/>
       <c r="E284" s="147"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="147"/>
       <c r="B285" s="147"/>
       <c r="C285" s="147"/>
       <c r="D285" s="147"/>
       <c r="E285" s="147"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="147"/>
       <c r="B286" s="147"/>
       <c r="C286" s="147"/>
       <c r="D286" s="147"/>
       <c r="E286" s="147"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="147"/>
       <c r="B287" s="147"/>
       <c r="C287" s="147"/>
       <c r="D287" s="147"/>
       <c r="E287" s="147"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="147"/>
       <c r="B288" s="147"/>
       <c r="C288" s="147"/>
       <c r="D288" s="147"/>
       <c r="E288" s="147"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="147"/>
       <c r="B289" s="147"/>
       <c r="C289" s="147"/>
       <c r="D289" s="147"/>
       <c r="E289" s="147"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="147"/>
       <c r="B290" s="147"/>
       <c r="C290" s="147"/>
       <c r="D290" s="147"/>
       <c r="E290" s="147"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="147"/>
       <c r="B291" s="147"/>
       <c r="C291" s="147"/>
       <c r="D291" s="147"/>
       <c r="E291" s="147"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="147"/>
       <c r="B292" s="147"/>
       <c r="C292" s="147"/>
       <c r="D292" s="147"/>
       <c r="E292" s="147"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="147"/>
       <c r="B293" s="147"/>
       <c r="C293" s="147"/>
       <c r="D293" s="147"/>
       <c r="E293" s="147"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="147"/>
       <c r="B294" s="147"/>
       <c r="C294" s="147"/>
       <c r="D294" s="147"/>
       <c r="E294" s="147"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="147"/>
       <c r="B295" s="147"/>
       <c r="C295" s="147"/>
       <c r="D295" s="147"/>
       <c r="E295" s="147"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="147"/>
       <c r="B296" s="147"/>
       <c r="C296" s="147"/>
       <c r="D296" s="147"/>
       <c r="E296" s="147"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="147"/>
       <c r="B297" s="147"/>
       <c r="C297" s="147"/>
       <c r="D297" s="147"/>
       <c r="E297" s="147"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="147"/>
       <c r="B298" s="147"/>
       <c r="C298" s="147"/>
       <c r="D298" s="147"/>
       <c r="E298" s="147"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="147"/>
       <c r="B299" s="147"/>
       <c r="C299" s="147"/>
       <c r="D299" s="147"/>
       <c r="E299" s="147"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="147"/>
       <c r="B300" s="147"/>
       <c r="C300" s="147"/>
       <c r="D300" s="147"/>
       <c r="E300" s="147"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="147"/>
       <c r="B301" s="147"/>
       <c r="C301" s="147"/>
       <c r="D301" s="147"/>
       <c r="E301" s="147"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="147"/>
       <c r="B302" s="147"/>
       <c r="C302" s="147"/>
       <c r="D302" s="147"/>
       <c r="E302" s="147"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="147"/>
       <c r="B303" s="147"/>
       <c r="C303" s="147"/>
       <c r="D303" s="147"/>
       <c r="E303" s="147"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="147"/>
       <c r="B304" s="147"/>
       <c r="C304" s="147"/>
       <c r="D304" s="147"/>
       <c r="E304" s="147"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="147"/>
       <c r="B305" s="147"/>
       <c r="C305" s="147"/>
       <c r="D305" s="147"/>
       <c r="E305" s="147"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="147"/>
       <c r="B306" s="147"/>
       <c r="C306" s="147"/>
       <c r="D306" s="147"/>
       <c r="E306" s="147"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="147"/>
       <c r="B307" s="147"/>
       <c r="C307" s="147"/>
       <c r="D307" s="147"/>
       <c r="E307" s="147"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="147"/>
       <c r="B308" s="147"/>
       <c r="C308" s="147"/>
       <c r="D308" s="147"/>
       <c r="E308" s="147"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="147"/>
       <c r="B309" s="147"/>
       <c r="C309" s="147"/>
       <c r="D309" s="147"/>
       <c r="E309" s="147"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="147"/>
       <c r="B310" s="147"/>
       <c r="C310" s="147"/>
       <c r="D310" s="147"/>
       <c r="E310" s="147"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="147"/>
       <c r="B311" s="147"/>
       <c r="C311" s="147"/>
       <c r="D311" s="147"/>
       <c r="E311" s="147"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="147"/>
       <c r="B312" s="147"/>
       <c r="C312" s="147"/>
       <c r="D312" s="147"/>
       <c r="E312" s="147"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="147"/>
       <c r="B313" s="147"/>
       <c r="C313" s="147"/>
       <c r="D313" s="147"/>
       <c r="E313" s="147"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="147"/>
       <c r="B314" s="147"/>
       <c r="C314" s="147"/>
       <c r="D314" s="147"/>
       <c r="E314" s="147"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="147"/>
       <c r="B315" s="147"/>
       <c r="C315" s="147"/>
       <c r="D315" s="147"/>
       <c r="E315" s="147"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="147"/>
       <c r="B316" s="147"/>
       <c r="C316" s="147"/>
       <c r="D316" s="147"/>
       <c r="E316" s="147"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="147"/>
       <c r="B317" s="147"/>
       <c r="C317" s="147"/>
@@ -6171,14 +6178,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6191,6 +6190,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6198,14 +6205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6215,7 +6222,7 @@
     <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="261" t="s">
         <v>11</v>
       </c>
@@ -6235,7 +6242,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" thickBot="1">
+    <row r="2" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="264" t="s">
         <v>12</v>
       </c>
@@ -6255,7 +6262,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
@@ -6284,7 +6291,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -6312,7 +6319,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="50"/>
@@ -6336,7 +6343,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>0</v>
       </c>
@@ -6368,7 +6375,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6405,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>20</v>
       </c>
@@ -6428,7 +6435,7 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>21</v>
       </c>
@@ -6458,7 +6465,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>22</v>
       </c>
@@ -6486,7 +6493,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>22</v>
       </c>
@@ -6516,7 +6523,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>75</v>
       </c>
@@ -6546,7 +6553,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>76</v>
       </c>
@@ -6576,7 +6583,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>76</v>
       </c>
@@ -6606,7 +6613,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>119</v>
       </c>
@@ -6636,7 +6643,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>123</v>
       </c>
@@ -6666,7 +6673,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>124</v>
       </c>
@@ -6696,7 +6703,7 @@
       <c r="R17" s="61"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>131</v>
       </c>
@@ -6726,7 +6733,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>132</v>
       </c>
@@ -6756,7 +6763,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>135</v>
       </c>
@@ -6786,7 +6793,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>137</v>
       </c>
@@ -6816,7 +6823,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>158</v>
       </c>
@@ -6846,7 +6853,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>161</v>
       </c>
@@ -6876,7 +6883,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>162</v>
       </c>
@@ -6906,7 +6913,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>164</v>
       </c>
@@ -6936,7 +6943,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>166</v>
       </c>
@@ -6964,7 +6971,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>167</v>
       </c>
@@ -6992,7 +6999,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>168</v>
       </c>
@@ -7020,7 +7027,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>169</v>
       </c>
@@ -7048,7 +7055,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>172</v>
       </c>
@@ -7076,7 +7083,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>171</v>
       </c>
@@ -7104,7 +7111,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>173</v>
       </c>
@@ -7132,7 +7139,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>173</v>
       </c>
@@ -7160,7 +7167,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>177</v>
       </c>
@@ -7188,7 +7195,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>179</v>
       </c>
@@ -7216,7 +7223,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="82"/>
@@ -7238,7 +7245,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="54"/>
       <c r="C37" s="50"/>
@@ -7260,7 +7267,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
       <c r="C38" s="50"/>
@@ -7282,7 +7289,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="54"/>
       <c r="C39" s="50"/>
@@ -7304,7 +7311,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
       <c r="B40" s="54"/>
       <c r="C40" s="50"/>
@@ -7326,7 +7333,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
       <c r="B41" s="54"/>
       <c r="C41" s="50"/>
@@ -7348,7 +7355,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
       <c r="B42" s="70"/>
       <c r="C42" s="84"/>
@@ -7370,7 +7377,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="B43" s="54"/>
       <c r="C43" s="50"/>
@@ -7392,7 +7399,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="70"/>
       <c r="C44" s="85"/>
@@ -7414,7 +7421,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="54"/>
       <c r="C45" s="50"/>
@@ -7436,7 +7443,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="79"/>
       <c r="C46" s="50"/>
@@ -7458,7 +7465,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="54"/>
       <c r="C47" s="50"/>
@@ -7480,7 +7487,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="54"/>
       <c r="C48" s="50"/>
@@ -7502,7 +7509,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="54"/>
       <c r="C49" s="50"/>
@@ -7524,7 +7531,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="87"/>
       <c r="B50" s="54"/>
       <c r="C50" s="50"/>
@@ -7546,7 +7553,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="87"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -7568,7 +7575,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="87"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -7590,7 +7597,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="87"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
@@ -7612,7 +7619,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="87"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
@@ -7634,7 +7641,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="87"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
@@ -7656,7 +7663,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="87"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -7678,7 +7685,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="87"/>
       <c r="B57" s="54"/>
       <c r="C57" s="50"/>
@@ -7700,7 +7707,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="87"/>
       <c r="B58" s="54"/>
       <c r="C58" s="50"/>
@@ -7722,7 +7729,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="87"/>
       <c r="B59" s="54"/>
       <c r="C59" s="50"/>
@@ -7744,7 +7751,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="87"/>
       <c r="B60" s="70"/>
       <c r="C60" s="50"/>
@@ -7766,7 +7773,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="87"/>
       <c r="B61" s="70"/>
       <c r="C61" s="50"/>
@@ -7788,7 +7795,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="87"/>
       <c r="B62" s="54"/>
       <c r="C62" s="50"/>
@@ -7810,7 +7817,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="87"/>
       <c r="B63" s="54"/>
       <c r="C63" s="50"/>
@@ -7832,7 +7839,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="87"/>
       <c r="B64" s="54"/>
       <c r="C64" s="50"/>
@@ -7854,7 +7861,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="87"/>
       <c r="B65" s="54"/>
       <c r="C65" s="50"/>
@@ -7876,7 +7883,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="87"/>
       <c r="B66" s="54"/>
       <c r="C66" s="50"/>
@@ -7898,7 +7905,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="87"/>
       <c r="B67" s="54"/>
       <c r="C67" s="50"/>
@@ -7920,7 +7927,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="87"/>
       <c r="B68" s="54"/>
       <c r="C68" s="50"/>
@@ -7942,7 +7949,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="87"/>
       <c r="B69" s="54"/>
       <c r="C69" s="50"/>
@@ -7964,7 +7971,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="87"/>
       <c r="B70" s="50"/>
       <c r="C70" s="50"/>
@@ -7986,7 +7993,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="87"/>
       <c r="B71" s="54"/>
       <c r="C71" s="50"/>
@@ -8008,7 +8015,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="87"/>
       <c r="B72" s="54"/>
       <c r="C72" s="50"/>
@@ -8030,7 +8037,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="87"/>
       <c r="B73" s="54"/>
       <c r="C73" s="50"/>
@@ -8052,7 +8059,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="87"/>
       <c r="B74" s="54"/>
       <c r="C74" s="50"/>
@@ -8074,7 +8081,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="87"/>
       <c r="B75" s="54"/>
       <c r="C75" s="50"/>
@@ -8096,7 +8103,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="87"/>
       <c r="B76" s="54"/>
       <c r="C76" s="50"/>
@@ -8118,7 +8125,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="87"/>
       <c r="B77" s="54"/>
       <c r="C77" s="50"/>
@@ -8140,7 +8147,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="87"/>
       <c r="B78" s="54"/>
       <c r="C78" s="50"/>
@@ -8162,7 +8169,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="87"/>
       <c r="B79" s="54"/>
       <c r="C79" s="50"/>
@@ -8184,7 +8191,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="87"/>
       <c r="B80" s="54"/>
       <c r="C80" s="50"/>
@@ -8206,7 +8213,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="87"/>
       <c r="B81" s="54"/>
       <c r="C81" s="50"/>
@@ -8228,7 +8235,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="87"/>
       <c r="B82" s="54"/>
       <c r="C82" s="50"/>
@@ -8250,7 +8257,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="88"/>
       <c r="B83" s="54">
         <f>SUM(B4:B72)</f>
@@ -8276,7 +8283,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D84" s="90"/>
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
@@ -8288,11 +8295,11 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S89">
         <v>3381</v>
       </c>
@@ -8308,45 +8315,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="267" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="267"/>
       <c r="B2" s="267"/>
       <c r="C2" s="267"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="268" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="268"/>
       <c r="C3" s="268"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="269"/>
       <c r="B4" s="269"/>
       <c r="C4" s="269"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>154</v>
       </c>
@@ -8357,7 +8364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="228" t="s">
         <v>71</v>
       </c>
@@ -8368,7 +8375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="228" t="s">
         <v>69</v>
       </c>
@@ -8379,7 +8386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="228" t="s">
         <v>54</v>
       </c>
@@ -8390,7 +8397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="228" t="s">
         <v>120</v>
       </c>
@@ -8401,7 +8408,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="228" t="s">
         <v>67</v>
       </c>
@@ -8412,7 +8419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="228" t="s">
         <v>56</v>
       </c>
@@ -8421,7 +8428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="228" t="s">
         <v>72</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>24413</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="228" t="s">
         <v>63</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="228" t="s">
         <v>70</v>
       </c>
@@ -8455,7 +8462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="228" t="s">
         <v>62</v>
       </c>
@@ -8466,7 +8473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="228" t="s">
         <v>134</v>
       </c>
@@ -8477,7 +8484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="228" t="s">
         <v>64</v>
       </c>
@@ -8486,7 +8493,7 @@
       </c>
       <c r="C17" s="228"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="228" t="s">
         <v>68</v>
       </c>
@@ -8497,7 +8504,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="228" t="s">
         <v>175</v>
       </c>
@@ -8508,7 +8515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="228" t="s">
         <v>155</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="228" t="s">
         <v>156</v>
       </c>
@@ -8534,7 +8541,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="228" t="s">
         <v>73</v>
       </c>
@@ -8545,7 +8552,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="228" t="s">
         <v>157</v>
       </c>
@@ -8556,7 +8563,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="228" t="s">
         <v>59</v>
       </c>
@@ -8567,7 +8574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="228" t="s">
         <v>174</v>
       </c>
@@ -8579,17 +8586,17 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="228"/>
       <c r="B26" s="228"/>
       <c r="C26" s="228"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="228"/>
       <c r="B27" s="228"/>
       <c r="C27" s="228"/>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
+    <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="229" t="s">
         <v>41</v>
       </c>
@@ -8610,14 +8617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
@@ -8634,7 +8641,7 @@
     <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="273" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8653,7 @@
       <c r="H1" s="166"/>
       <c r="I1" s="166"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75">
+    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="276" t="s">
         <v>181</v>
       </c>
@@ -8655,7 +8662,7 @@
       <c r="D2" s="277"/>
       <c r="E2" s="278"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -8671,7 +8678,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
       <c r="B4" s="20"/>
       <c r="C4" s="38"/>
@@ -8684,7 +8691,7 @@
       <c r="K4" s="280"/>
       <c r="L4" s="281"/>
     </row>
-    <row r="5" spans="1:12" ht="22.5">
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
         <v>9</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21.75">
+    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
         <v>127</v>
       </c>
@@ -8734,7 +8741,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.75">
+    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="31"/>
       <c r="C7" s="38"/>
@@ -8755,7 +8762,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.75">
+    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>128</v>
       </c>
@@ -8780,7 +8787,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5">
+    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>10</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21.75">
+    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -8822,7 +8829,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21.75">
+    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="93"/>
       <c r="B11" s="31"/>
       <c r="C11" s="38"/>
@@ -8849,7 +8856,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21.75">
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
         <v>53</v>
       </c>
@@ -8873,7 +8880,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21.75">
+    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="31"/>
       <c r="C13" s="38"/>
@@ -8890,7 +8897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75">
+    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
       <c r="B14" s="31"/>
       <c r="C14" s="38"/>
@@ -8907,7 +8914,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21.75">
+    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
         <v>129</v>
       </c>
@@ -8934,7 +8941,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="22.5" thickBot="1">
+    <row r="16" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
       <c r="B16" s="100"/>
       <c r="C16" s="101"/>
@@ -8950,7 +8957,7 @@
         <v>18013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="270"/>
       <c r="B17" s="271"/>
       <c r="C17" s="271"/>
@@ -8958,47 +8965,47 @@
       <c r="E17" s="272"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="28"/>
       <c r="D18" s="13"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="28"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="28"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="8"/>
       <c r="C25" s="28"/>
@@ -9008,50 +9015,50 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="8"/>
       <c r="C26" s="28"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="28"/>
       <c r="D27" s="12"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="28"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="28"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="28"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:E17"/>
@@ -9066,14 +9073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="148" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="148" customWidth="1"/>
@@ -9093,7 +9100,7 @@
     <col min="18" max="16384" width="9.140625" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="285" t="s">
         <v>11</v>
       </c>
@@ -9114,7 +9121,7 @@
       <c r="P1" s="285"/>
       <c r="Q1" s="285"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="285"/>
       <c r="B2" s="285"/>
       <c r="C2" s="285"/>
@@ -9133,7 +9140,7 @@
       <c r="P2" s="285"/>
       <c r="Q2" s="285"/>
     </row>
-    <row r="3" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="286" t="s">
         <v>85</v>
       </c>
@@ -9154,7 +9161,7 @@
       <c r="P3" s="286"/>
       <c r="Q3" s="286"/>
     </row>
-    <row r="4" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="287" t="s">
         <v>24</v>
       </c>
@@ -9175,7 +9182,7 @@
       <c r="P4" s="287"/>
       <c r="Q4" s="287"/>
     </row>
-    <row r="5" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:17" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="288" t="s">
         <v>182</v>
       </c>
@@ -9198,7 +9205,7 @@
       <c r="P5" s="289"/>
       <c r="Q5" s="169"/>
     </row>
-    <row r="6" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:17" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>87</v>
       </c>
@@ -9251,7 +9258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="150">
         <v>1</v>
       </c>
@@ -9276,7 +9283,7 @@
       <c r="P7" s="212"/>
       <c r="Q7" s="204"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150">
         <v>2</v>
       </c>
@@ -9301,7 +9308,7 @@
       <c r="P8" s="212"/>
       <c r="Q8" s="204"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="173">
         <v>3</v>
       </c>
@@ -9326,7 +9333,7 @@
       <c r="P9" s="212"/>
       <c r="Q9" s="204"/>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="150">
         <v>4</v>
       </c>
@@ -9351,7 +9358,7 @@
       <c r="P10" s="212"/>
       <c r="Q10" s="213"/>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1">
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="150">
         <v>5</v>
       </c>
@@ -9376,7 +9383,7 @@
       <c r="P11" s="212"/>
       <c r="Q11" s="213"/>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1">
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="173">
         <v>6</v>
       </c>
@@ -9401,7 +9408,7 @@
       <c r="P12" s="212"/>
       <c r="Q12" s="213"/>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="150">
         <v>7</v>
       </c>
@@ -9426,7 +9433,7 @@
       <c r="P13" s="212"/>
       <c r="Q13" s="213"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="150">
         <v>8</v>
       </c>
@@ -9451,7 +9458,7 @@
       <c r="P14" s="212"/>
       <c r="Q14" s="213"/>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="173">
         <v>9</v>
       </c>
@@ -9476,7 +9483,7 @@
       <c r="P15" s="212"/>
       <c r="Q15" s="213"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150">
         <v>10</v>
       </c>
@@ -9501,7 +9508,7 @@
       <c r="P16" s="212"/>
       <c r="Q16" s="213"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="150">
         <v>11</v>
       </c>
@@ -9526,7 +9533,7 @@
       <c r="P17" s="212"/>
       <c r="Q17" s="213"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173">
         <v>12</v>
       </c>
@@ -9551,7 +9558,7 @@
       <c r="P18" s="212"/>
       <c r="Q18" s="213"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="150">
         <v>13</v>
       </c>
@@ -9576,7 +9583,7 @@
       <c r="P19" s="212"/>
       <c r="Q19" s="213"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="150">
         <v>14</v>
       </c>
@@ -9601,7 +9608,7 @@
       <c r="P20" s="212"/>
       <c r="Q20" s="213"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="173">
         <v>15</v>
       </c>
@@ -9626,7 +9633,7 @@
       <c r="P21" s="212"/>
       <c r="Q21" s="213"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="150">
         <v>16</v>
       </c>
@@ -9651,7 +9658,7 @@
       <c r="P22" s="212"/>
       <c r="Q22" s="213"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="150">
         <v>17</v>
       </c>
@@ -9676,7 +9683,7 @@
       <c r="P23" s="212"/>
       <c r="Q23" s="213"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="173">
         <v>18</v>
       </c>
@@ -9701,7 +9708,7 @@
       <c r="P24" s="212"/>
       <c r="Q24" s="213"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150">
         <v>19</v>
       </c>
@@ -9726,7 +9733,7 @@
       <c r="P25" s="212"/>
       <c r="Q25" s="213"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150">
         <v>20</v>
       </c>
@@ -9751,7 +9758,7 @@
       <c r="P26" s="212"/>
       <c r="Q26" s="213"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="173">
         <v>21</v>
       </c>
@@ -9776,7 +9783,7 @@
       <c r="P27" s="212"/>
       <c r="Q27" s="213"/>
     </row>
-    <row r="28" spans="1:17" s="158" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:17" s="158" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="282" t="s">
         <v>44</v>
       </c>
@@ -9836,7 +9843,7 @@
       </c>
       <c r="Q28" s="178"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="71"/>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -9846,7 +9853,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
       <c r="B30" s="71"/>
       <c r="C30" s="57"/>
@@ -9858,7 +9865,7 @@
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="71"/>
       <c r="B31" s="71"/>
       <c r="C31" s="57"/>
@@ -9867,7 +9874,7 @@
       <c r="G31" s="71"/>
       <c r="I31" s="71"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="71"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57"/>
@@ -9876,7 +9883,7 @@
       <c r="G32" s="71"/>
       <c r="I32" s="71"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
       <c r="B33" s="71"/>
       <c r="C33" s="57"/>
@@ -9885,7 +9892,7 @@
       <c r="G33" s="71"/>
       <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="71"/>
       <c r="B34" s="71"/>
       <c r="C34" s="57"/>
@@ -9894,589 +9901,589 @@
       <c r="G34" s="71"/>
       <c r="I34" s="71"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="71"/>
       <c r="B35" s="71"/>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160"/>
       <c r="B36" s="160"/>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="71"/>
       <c r="B37" s="71"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="71"/>
       <c r="B39" s="71"/>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="71"/>
       <c r="B40" s="71"/>
       <c r="C40" s="57"/>
       <c r="D40" s="57"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="71"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
       <c r="D46" s="71"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
       <c r="D50" s="71"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
       <c r="D51" s="71"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="71"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="71"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="71"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="71"/>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
       <c r="D55" s="71"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="71"/>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="71"/>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
       <c r="D57" s="71"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="71"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
       <c r="D58" s="71"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="71"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
       <c r="D59" s="71"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="71"/>
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
       <c r="D60" s="71"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="71"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
       <c r="D61" s="71"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="71"/>
       <c r="D62" s="71"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="71"/>
       <c r="D63" s="71"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="71"/>
       <c r="D64" s="71"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="71"/>
       <c r="D65" s="71"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="71"/>
       <c r="D66" s="71"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="71"/>
       <c r="D67" s="71"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="71"/>
       <c r="D68" s="71"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="71"/>
       <c r="D69" s="71"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="71"/>
       <c r="D70" s="71"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="71"/>
       <c r="D71" s="71"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="71"/>
       <c r="D75" s="71"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="71"/>
       <c r="D77" s="71"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="71"/>
       <c r="D78" s="71"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="71"/>
       <c r="D79" s="71"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="71"/>
       <c r="D80" s="71"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="71"/>
       <c r="D81" s="71"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="71"/>
       <c r="D82" s="71"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="71"/>
       <c r="D83" s="71"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="71"/>
       <c r="D84" s="71"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="71"/>
       <c r="D85" s="71"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="71"/>
       <c r="D86" s="71"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="71"/>
       <c r="D87" s="71"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="71"/>
       <c r="D88" s="71"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="71"/>
       <c r="D89" s="71"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="71"/>
       <c r="D91" s="71"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="71"/>
       <c r="D92" s="71"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="71"/>
       <c r="D93" s="71"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="71"/>
       <c r="D94" s="71"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="71"/>
       <c r="D95" s="71"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="71"/>
       <c r="D97" s="71"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="71"/>
       <c r="D99" s="71"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="71"/>
       <c r="D100" s="71"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="71"/>
       <c r="D101" s="71"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="71"/>
       <c r="D102" s="71"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="71"/>
       <c r="D103" s="71"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="71"/>
       <c r="D104" s="71"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="71"/>
       <c r="D106" s="71"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="71"/>
       <c r="D107" s="71"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="71"/>
       <c r="D108" s="71"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="71"/>
       <c r="D109" s="71"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="71"/>
       <c r="D110" s="71"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="71"/>
       <c r="D111" s="71"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="71"/>
       <c r="D112" s="71"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="71"/>
       <c r="D113" s="71"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="71"/>
       <c r="D114" s="71"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="71"/>
       <c r="D115" s="71"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="71"/>
       <c r="D116" s="71"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="71"/>
       <c r="D117" s="71"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="71"/>
       <c r="D118" s="71"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="71"/>
       <c r="D119" s="71"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="71"/>
       <c r="D120" s="71"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="71"/>
       <c r="D121" s="71"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="71"/>
       <c r="D122" s="71"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="71"/>
       <c r="D123" s="71"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="71"/>
       <c r="D124" s="71"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="71"/>
       <c r="D126" s="71"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="71"/>
       <c r="D127" s="71"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="71"/>
       <c r="D128" s="71"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="71"/>
       <c r="D129" s="71"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="71"/>
       <c r="D130" s="71"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="71"/>
       <c r="D131" s="71"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="71"/>
       <c r="D132" s="71"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="71"/>
       <c r="D133" s="71"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="71"/>
       <c r="D134" s="71"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="71"/>
       <c r="D135" s="71"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="71"/>
       <c r="D138" s="71"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="71"/>
       <c r="D140" s="71"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="71"/>
       <c r="D141" s="71"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="71"/>
       <c r="D142" s="71"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="71"/>
       <c r="D143" s="71"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="71"/>
       <c r="D144" s="71"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="71"/>
       <c r="D145" s="71"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="71"/>
       <c r="D146" s="71"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="71"/>
       <c r="D147" s="71"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="71"/>
       <c r="D148" s="71"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="71"/>
       <c r="D149" s="71"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="71"/>
       <c r="D150" s="71"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="71"/>
       <c r="D151" s="71"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="71"/>
       <c r="D152" s="71"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="71"/>
       <c r="D153" s="71"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="71"/>
       <c r="D154" s="71"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="71"/>
       <c r="D155" s="71"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="71"/>
       <c r="D156" s="71"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="71"/>
       <c r="D157" s="71"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="71"/>
       <c r="D158" s="71"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="71"/>
       <c r="D159" s="71"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="71"/>
       <c r="D160" s="71"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="71"/>
       <c r="D161" s="71"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="71"/>
       <c r="D162" s="71"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="71"/>
       <c r="D163" s="71"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="71"/>
       <c r="D164" s="71"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="71"/>
       <c r="D165" s="71"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="71"/>
       <c r="D166" s="71"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="71"/>
       <c r="D167" s="71"/>
     </row>
@@ -10498,14 +10505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -10513,7 +10520,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="291" t="s">
         <v>133</v>
       </c>
@@ -10521,7 +10528,7 @@
       <c r="D1" s="292"/>
       <c r="E1" s="293"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1">
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="179" t="s">
         <v>96</v>
       </c>
@@ -10535,7 +10542,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="180" t="s">
         <v>97</v>
       </c>
@@ -10550,7 +10557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1">
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="180" t="s">
         <v>98</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="180" t="s">
         <v>99</v>
       </c>
@@ -10580,7 +10587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="180" t="s">
         <v>100</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="180" t="s">
         <v>101</v>
       </c>
@@ -10610,7 +10617,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="180" t="s">
         <v>102</v>
       </c>
@@ -10625,7 +10632,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="180" t="s">
         <v>103</v>
       </c>
@@ -10641,7 +10648,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="180" t="s">
         <v>104</v>
       </c>
@@ -10656,7 +10663,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="180" t="s">
         <v>105</v>
       </c>
@@ -10671,7 +10678,7 @@
         <v>-5690</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="180" t="s">
         <v>106</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1">
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="180" t="s">
         <v>107</v>
       </c>
@@ -10701,7 +10708,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="180" t="s">
         <v>108</v>
       </c>
@@ -10716,7 +10723,7 @@
         <v>-5027</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="180" t="s">
         <v>109</v>
       </c>
@@ -10731,7 +10738,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="180" t="s">
         <v>110</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="180" t="s">
         <v>111</v>
       </c>
@@ -10761,7 +10768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="180" t="s">
         <v>112</v>
       </c>
@@ -10776,7 +10783,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="180" t="s">
         <v>113</v>
       </c>
@@ -10791,7 +10798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="180" t="s">
         <v>114</v>
       </c>
@@ -10806,7 +10813,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="180" t="s">
         <v>115</v>
       </c>
@@ -10821,7 +10828,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="180" t="s">
         <v>116</v>
       </c>
@@ -10836,7 +10843,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="180" t="s">
         <v>117</v>
       </c>
@@ -10851,7 +10858,7 @@
         <v>-3262</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="184" t="s">
         <v>41</v>
       </c>
@@ -10885,14 +10892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="148" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="148" customWidth="1"/>
@@ -10912,7 +10919,7 @@
     <col min="18" max="16384" width="9.140625" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="285" t="s">
         <v>11</v>
       </c>
@@ -10933,7 +10940,7 @@
       <c r="P1" s="285"/>
       <c r="Q1" s="285"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="285"/>
       <c r="B2" s="285"/>
       <c r="C2" s="285"/>
@@ -10952,7 +10959,7 @@
       <c r="P2" s="285"/>
       <c r="Q2" s="285"/>
     </row>
-    <row r="3" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="286" t="s">
         <v>85</v>
       </c>
@@ -10973,7 +10980,7 @@
       <c r="P3" s="286"/>
       <c r="Q3" s="286"/>
     </row>
-    <row r="4" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="287" t="s">
         <v>24</v>
       </c>
@@ -10994,7 +11001,7 @@
       <c r="P4" s="287"/>
       <c r="Q4" s="287"/>
     </row>
-    <row r="5" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:18" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="294" t="s">
         <v>176</v>
       </c>
@@ -11019,7 +11026,7 @@
       <c r="P5" s="290"/>
       <c r="Q5" s="289"/>
     </row>
-    <row r="6" spans="1:18" s="149" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:18" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>87</v>
       </c>
@@ -11072,7 +11079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1">
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="150">
         <v>1</v>
       </c>
@@ -11106,7 +11113,7 @@
         <v>-2911</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1">
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150">
         <v>2</v>
       </c>
@@ -11137,7 +11144,7 @@
       </c>
       <c r="Q8" s="197"/>
     </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1">
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="173">
         <v>3</v>
       </c>
@@ -11169,7 +11176,7 @@
       <c r="Q9" s="197"/>
       <c r="R9" s="159"/>
     </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1">
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="221">
         <v>4</v>
       </c>
@@ -11194,7 +11201,7 @@
       <c r="P10" s="220"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1">
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="173">
         <v>5</v>
       </c>
@@ -11225,7 +11232,7 @@
       </c>
       <c r="Q11" s="223"/>
     </row>
-    <row r="12" spans="1:18" ht="18" customHeight="1">
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="224">
         <v>6</v>
       </c>
@@ -11254,7 +11261,7 @@
       <c r="P12" s="220"/>
       <c r="Q12" s="223"/>
     </row>
-    <row r="13" spans="1:18" ht="18" customHeight="1">
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="173">
         <v>7</v>
       </c>
@@ -11281,7 +11288,7 @@
       <c r="P13" s="220"/>
       <c r="Q13" s="223"/>
     </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1">
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="224">
         <v>8</v>
       </c>
@@ -11318,7 +11325,7 @@
       <c r="P14" s="220"/>
       <c r="Q14" s="223"/>
     </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1">
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="173">
         <v>9</v>
       </c>
@@ -11347,7 +11354,7 @@
       </c>
       <c r="Q15" s="223"/>
     </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1">
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="224">
         <v>10</v>
       </c>
@@ -11374,7 +11381,7 @@
       <c r="P16" s="220"/>
       <c r="Q16" s="223"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="173">
         <v>11</v>
       </c>
@@ -11409,7 +11416,7 @@
       </c>
       <c r="Q17" s="223"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="150">
         <v>12</v>
       </c>
@@ -11440,7 +11447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="225">
         <v>13</v>
       </c>
@@ -11461,7 +11468,7 @@
       <c r="P19" s="220"/>
       <c r="Q19" s="223"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="226">
         <v>14</v>
       </c>
@@ -11486,7 +11493,7 @@
       <c r="P20" s="220"/>
       <c r="Q20" s="223"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="225">
         <v>15</v>
       </c>
@@ -11507,7 +11514,7 @@
       <c r="P21" s="220"/>
       <c r="Q21" s="223"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="225">
         <v>17</v>
       </c>
@@ -11534,7 +11541,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="226">
         <v>18</v>
       </c>
@@ -11555,7 +11562,7 @@
       <c r="P23" s="220"/>
       <c r="Q23" s="223"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="225">
         <v>19</v>
       </c>
@@ -11576,7 +11583,7 @@
       <c r="P24" s="220"/>
       <c r="Q24" s="223"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="227">
         <v>20</v>
       </c>
@@ -11597,7 +11604,7 @@
       <c r="P25" s="220"/>
       <c r="Q25" s="223"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="227">
         <v>21</v>
       </c>
@@ -11618,7 +11625,7 @@
       <c r="P26" s="220"/>
       <c r="Q26" s="223"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="227">
         <v>22</v>
       </c>
@@ -11639,7 +11646,7 @@
       <c r="P27" s="220"/>
       <c r="Q27" s="223"/>
     </row>
-    <row r="28" spans="1:17" s="158" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:17" s="158" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="282" t="s">
         <v>44</v>
       </c>
@@ -11699,7 +11706,7 @@
       </c>
       <c r="Q28" s="178"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="71"/>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -11709,7 +11716,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="71"/>
       <c r="B30" s="71"/>
       <c r="C30" s="57"/>
@@ -11721,7 +11728,7 @@
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="71"/>
       <c r="B31" s="71"/>
       <c r="C31" s="57"/>
@@ -11730,7 +11737,7 @@
       <c r="G31" s="71"/>
       <c r="I31" s="71"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="71"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57"/>
@@ -11739,7 +11746,7 @@
       <c r="G32" s="71"/>
       <c r="I32" s="71"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
       <c r="B33" s="71"/>
       <c r="C33" s="57"/>
@@ -11748,7 +11755,7 @@
       <c r="G33" s="71"/>
       <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="71"/>
       <c r="B34" s="71"/>
       <c r="C34" s="57"/>
@@ -11757,589 +11764,589 @@
       <c r="G34" s="71"/>
       <c r="I34" s="71"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="71"/>
       <c r="B35" s="71"/>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160"/>
       <c r="B36" s="160"/>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="71"/>
       <c r="B37" s="71"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="71"/>
       <c r="B39" s="71"/>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="71"/>
       <c r="B40" s="71"/>
       <c r="C40" s="57"/>
       <c r="D40" s="57"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="71"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
       <c r="D46" s="71"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
       <c r="D50" s="71"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
       <c r="D51" s="71"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="71"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="71"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="71"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="71"/>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
       <c r="D55" s="71"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="71"/>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="71"/>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
       <c r="D57" s="71"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="71"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
       <c r="D58" s="71"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="71"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
       <c r="D59" s="71"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="71"/>
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
       <c r="D60" s="71"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="71"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
       <c r="D61" s="71"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="71"/>
       <c r="D62" s="71"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="71"/>
       <c r="D63" s="71"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="71"/>
       <c r="D64" s="71"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="71"/>
       <c r="D65" s="71"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="71"/>
       <c r="D66" s="71"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="71"/>
       <c r="D67" s="71"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="71"/>
       <c r="D68" s="71"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="71"/>
       <c r="D69" s="71"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="71"/>
       <c r="D70" s="71"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="71"/>
       <c r="D71" s="71"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="71"/>
       <c r="D74" s="71"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="71"/>
       <c r="D75" s="71"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="71"/>
       <c r="D77" s="71"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="71"/>
       <c r="D78" s="71"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="71"/>
       <c r="D79" s="71"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="71"/>
       <c r="D80" s="71"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="71"/>
       <c r="D81" s="71"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="71"/>
       <c r="D82" s="71"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="71"/>
       <c r="D83" s="71"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="71"/>
       <c r="D84" s="71"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="71"/>
       <c r="D85" s="71"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="71"/>
       <c r="D86" s="71"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="71"/>
       <c r="D87" s="71"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="71"/>
       <c r="D88" s="71"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="71"/>
       <c r="D89" s="71"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="71"/>
       <c r="D91" s="71"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="71"/>
       <c r="D92" s="71"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="71"/>
       <c r="D93" s="71"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="71"/>
       <c r="D94" s="71"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="71"/>
       <c r="D95" s="71"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="71"/>
       <c r="D97" s="71"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="71"/>
       <c r="D98" s="71"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="71"/>
       <c r="D99" s="71"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="71"/>
       <c r="D100" s="71"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="71"/>
       <c r="D101" s="71"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="71"/>
       <c r="D102" s="71"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="71"/>
       <c r="D103" s="71"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="71"/>
       <c r="D104" s="71"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="71"/>
       <c r="D105" s="71"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="71"/>
       <c r="D106" s="71"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="71"/>
       <c r="D107" s="71"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="71"/>
       <c r="D108" s="71"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="71"/>
       <c r="D109" s="71"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="71"/>
       <c r="D110" s="71"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="71"/>
       <c r="D111" s="71"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="71"/>
       <c r="D112" s="71"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="71"/>
       <c r="D113" s="71"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="71"/>
       <c r="D114" s="71"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="71"/>
       <c r="D115" s="71"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="71"/>
       <c r="D116" s="71"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="71"/>
       <c r="D117" s="71"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="71"/>
       <c r="D118" s="71"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="71"/>
       <c r="D119" s="71"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="71"/>
       <c r="D120" s="71"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="71"/>
       <c r="D121" s="71"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="71"/>
       <c r="D122" s="71"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="71"/>
       <c r="D123" s="71"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="71"/>
       <c r="D124" s="71"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="71"/>
       <c r="D126" s="71"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="71"/>
       <c r="D127" s="71"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="71"/>
       <c r="D128" s="71"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="71"/>
       <c r="D129" s="71"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="71"/>
       <c r="D130" s="71"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="71"/>
       <c r="D131" s="71"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="71"/>
       <c r="D132" s="71"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="71"/>
       <c r="D133" s="71"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="71"/>
       <c r="D134" s="71"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="71"/>
       <c r="D135" s="71"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="71"/>
       <c r="D138" s="71"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="71"/>
       <c r="D140" s="71"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="71"/>
       <c r="D141" s="71"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="71"/>
       <c r="D142" s="71"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="71"/>
       <c r="D143" s="71"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="71"/>
       <c r="D144" s="71"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="71"/>
       <c r="D145" s="71"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="71"/>
       <c r="D146" s="71"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="71"/>
       <c r="D147" s="71"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="71"/>
       <c r="D148" s="71"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="71"/>
       <c r="D149" s="71"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="71"/>
       <c r="D150" s="71"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="71"/>
       <c r="D151" s="71"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="71"/>
       <c r="D152" s="71"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="71"/>
       <c r="D153" s="71"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="71"/>
       <c r="D154" s="71"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="71"/>
       <c r="D155" s="71"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="71"/>
       <c r="D156" s="71"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="71"/>
       <c r="D157" s="71"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="71"/>
       <c r="D158" s="71"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="71"/>
       <c r="D159" s="71"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="71"/>
       <c r="D160" s="71"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="71"/>
       <c r="D161" s="71"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="71"/>
       <c r="D162" s="71"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="71"/>
       <c r="D163" s="71"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="71"/>
       <c r="D164" s="71"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="71"/>
       <c r="D165" s="71"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="71"/>
       <c r="D166" s="71"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="71"/>
       <c r="D167" s="71"/>
     </row>
